--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -575,7 +575,7 @@
         <v>44753</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>44350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44972</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44412</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>45636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44972</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45989</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45947.46935185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45636</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44494</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>45154</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44881</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44266</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45989</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44361</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45561</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>45583</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44972</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44972</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45201</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>44522</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45716</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45478</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>45989</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>45054</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>44474</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45764</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45636</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44945</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45915</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>45051</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45887</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45770</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45205</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44657</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45349</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44235</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44964</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>45463</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>45238</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>44964</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45399</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45509</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45149</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45841.3452662037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45478</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45497</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45463</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>45573</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45512</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>45589</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>45208</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44664</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45764</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45799.65734953704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45709</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45205</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45552</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>45545</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45575</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>45665</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45989</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>44806</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45461</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45558</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45478</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>46009</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44806</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>45545</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45113</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45188.94413194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44648</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44732</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44515</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45561</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>45929.594375</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45839.46946759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44235</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>45546</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>45961.42766203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>45618</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45545</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45560</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44972</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>45751</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44266</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>45643</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45461</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45821</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45098</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45834.47067129629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>45936</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45903</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>45874</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45618</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44401</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>44529</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>45582</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>45278</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45560</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>46048</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45541.38572916666</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45777.46910879629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44532</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>45526.62043981482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>45804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>45821</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>45240</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45545</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45936</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45526</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>45636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>45736</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>45824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>45887</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45545</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44994</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>44560</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45523.38783564815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45254</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45462</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>46056.44005787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45565</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45756</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>45573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45586</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44812</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44419.94226851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44361</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44628</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44619.87392361111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44619.86621527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44867.95054398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44452</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44713</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44628.92569444444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44613</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44844</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44756.94431712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44756.94440972222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>44307</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44686</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44852.95126157408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44619</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44307</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44837.66417824074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44531</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44532</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44817</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44503</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44371</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>44253</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>44690</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44434</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44858.95158564814</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44389.5819675926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44743</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44743.94269675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44889.94913194444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44419.94237268518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44419.94289351852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44419.94302083334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44756</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44433</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44754</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44442</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44619.88071759259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44616.93883101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44755.62866898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44532</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44743</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44852.95145833334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44743.620625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44462</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44412</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44708</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44369.91984953704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44532</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44879</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44799</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44377</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44452</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44341</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44617.9343287037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44495.94003472223</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44637</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44545.9203587963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44545</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44452</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44545.92033564814</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44357</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44341</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44837</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44743</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44442.94226851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44972</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44459.71978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44545.92059027778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45597.5109837963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45471</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45481.95178240741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45560</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45555.51084490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45617.49107638889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44914</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45443</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>45470.9693287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45660.419375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45518.97256944444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>44957</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>44939</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44657</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>45162.94335648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>45107</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>45603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45749</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>45254</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45541.63569444444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>45541.63581018519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45190</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45000</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45630</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45712</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44627</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45478</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45237.97364583334</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45571</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45238</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>44901</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>44923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45388</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>45567.37387731481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44942</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>45709</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>45693.53200231482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44515</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45502</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44378</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44330</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44522</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45194</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45733</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45534.63586805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45114.94138888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44748</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45799.69844907407</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>45147.95444444445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>45166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45202.9413425926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45884.55297453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45149.95266203704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45799.49028935185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45799.49025462963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>45512.95870370371</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45237.97375</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45415.94033564815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45803.38644675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>45545.49028935185</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45555.57373842593</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45800.44892361111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45531.4075</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45884.42813657408</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45800.44840277778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44847</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45623</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45884.49061342593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>45800.57380787037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45800</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>45804.3449537037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45096</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45239</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45636.55063657407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44802</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45804.59461805555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45546.63689814815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45440.92866898148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45805</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45573</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45583</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45889.46940972222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45810.53185185185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45888.59435185185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45810.59417824074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45889.59453703704</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45730.37633101852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45730</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>45810</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45810.53188657408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44978</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45813.52791666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>45401.94358796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>45890.49021990741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>45890.46978009259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45890.44863425926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45890.44875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45894</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>45817.51078703703</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>45709</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>45817.53157407408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>45469</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45817.61506944444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45894.65951388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45119</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45817</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45817.67755787037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45817.61545138889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>45817.65658564815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>45232</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>45526.61646990741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45526.61664351852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44686</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45656.51119212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45894.57322916666</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45572.51092592593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>45784</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>44568</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45338</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45140</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>44890</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45440.95310185185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45195</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44246</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>45898</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45595.41166666667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45597</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>44852.94685185186</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>45820.6360300926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>44397</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45902</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>45821</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45931</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>44911.51318287037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>45748.63356481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45904</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45265.95667824074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45904</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45659</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>45824.69865740741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45831.58256944444</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45586.38592592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>45799</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>45707.46905092592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45823</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>45789</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45824.34478009259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45403</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45372</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>45824.69888888889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45308</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>45250.96092592592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>45880</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>45259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44515</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44515</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>45579</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>45915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45915</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>45672.45302083333</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>44826</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>45826.45104166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -32175,7 +32175,7 @@
         <v>45826.45702546297</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>44847</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>45558</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32356,7 +32356,7 @@
         <v>45636</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32413,7 +32413,7 @@
         <v>45917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32470,7 +32470,7 @@
         <v>45463</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45730</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32594,7 +32594,7 @@
         <v>45730</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>45831.38579861111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32718,7 +32718,7 @@
         <v>45240</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>45206.95747685185</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44505</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>45918</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>45923.48195601852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45636.36488425926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>45730</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>45730.37515046296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45730</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45197.94158564815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>45922.46759259259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33385,7 +33385,7 @@
         <v>45919</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33442,7 +33442,7 @@
         <v>45656</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45833</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>44847</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45463.94247685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>45833</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>45161</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33799,7 +33799,7 @@
         <v>45834</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45590.37554398148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44328</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45280</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45929.59428240741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45614</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -34161,7 +34161,7 @@
         <v>45618</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -34223,7 +34223,7 @@
         <v>45929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -34285,7 +34285,7 @@
         <v>45495.9509837963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45929.50732638889</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45331</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45834</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45834.47035879629</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>45226.96258101852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44452</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44452</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45972</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>45343</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>45791</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45972</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>45786</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>45777</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>45769</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>44981.72646990741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>45170.95747685185</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44316.41677083333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>45735</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         <v>45786</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
         <v>45734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35579,7 +35579,7 @@
         <v>45147.95390046296</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>45841</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>45936.55251157407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45841.65045138889</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45216.95800925926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         <v>45483.96994212963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>45979.25059027778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>44543</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45841.34461805555</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44743.94145833333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>45937.36527777778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44963.93989583333</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>45840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>45260.9258912037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45939.65079861111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44855</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36603,7 +36603,7 @@
         <v>45117</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>45248</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45770</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45937.4828125</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45943.57296296296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45845</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45251.92947916667</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45636</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45845</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45625</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>45636</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>45636</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>45833</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>44540</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37431,7 +37431,7 @@
         <v>45944.42415509259</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>45944.3862037037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45847.57950231482</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>45847.58480324074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>45946.67149305555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>45847.53211805555</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37788,7 +37788,7 @@
         <v>45947.42334490741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         <v>45125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37902,7 +37902,7 @@
         <v>45853.59447916667</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>45853.59453703704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -38026,7 +38026,7 @@
         <v>45161</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -38088,7 +38088,7 @@
         <v>44235</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -38145,7 +38145,7 @@
         <v>45408</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         <v>45576.34444444445</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45854</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45854.3653587963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -38388,7 +38388,7 @@
         <v>45854.36543981481</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38450,7 +38450,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38507,7 +38507,7 @@
         <v>45951.55436342592</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38564,7 +38564,7 @@
         <v>45951.46043981481</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38621,7 +38621,7 @@
         <v>45951.47362268518</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45205</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>45951.55298611111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45757</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45206.95854166667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>45952.61252314815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38973,7 +38973,7 @@
         <v>45862</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -39030,7 +39030,7 @@
         <v>45862.44034722223</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -39087,7 +39087,7 @@
         <v>45541</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>45953.68225694444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45700</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45995.71637731481</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45625</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45954.34572916666</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>45954.59429398148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>44235</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>44235</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>44488</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45297.83246527778</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45740.61644675926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45957.44878472222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>45771.60482638889</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>45912</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45873</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>45957.42777777778</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>45870</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44972</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>45574</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45874.63747685185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>45874.71912037037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45265.95685185185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45874.59450231482</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>45876</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>45639</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>45957.82777777778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40696,7 +40696,7 @@
         <v>45775</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>45546</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40810,7 +40810,7 @@
         <v>45238</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45877.34436342592</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45877.34444444445</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45876</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>45642.61490740741</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45877.36513888889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45089</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45492.95777777778</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45399</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -41353,7 +41353,7 @@
         <v>45399</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>45558</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45443</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>44977</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>45508</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45957</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
         <v>45957</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41762,7 +41762,7 @@
         <v>45957</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45957</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>45957</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45957</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45957</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45515</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45957</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45989</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>45989</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>45989</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45966</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>45989</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45989</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>45883.6364699074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>45989</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>45883.67839120371</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>45967.38887731481</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>45967</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>45968.34498842592</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45636</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -43108,7 +43108,7 @@
         <v>45545</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -43165,7 +43165,7 @@
         <v>45415</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43222,7 +43222,7 @@
         <v>45770</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>45229</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>45883.63611111111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -43403,7 +43403,7 @@
         <v>45968.34462962963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>45883.57451388889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44515</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>45883.53290509259</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45883</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43708,7 +43708,7 @@
         <v>45883.59429398148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43770,7 +43770,7 @@
         <v>45709</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45971.51086805556</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -43889,7 +43889,7 @@
         <v>45883.36547453704</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43946,7 +43946,7 @@
         <v>45883.36553240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45883.53247685185</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45952</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -44127,7 +44127,7 @@
         <v>45883.63638888889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45883.53228009259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45883.53263888889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45882.93524305556</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45972.34466435185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45882.95137731481</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>45538.63577546296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45635</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>45450.94366898148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44727,7 +44727,7 @@
         <v>45643</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44993.94818287037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45884.42768518518</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45142.95103009259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44975,7 +44975,7 @@
         <v>45884.46951388889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -45037,7 +45037,7 @@
         <v>45625</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45435.94567129629</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45216.95556712963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>45979.59443287037</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45280,7 +45280,7 @@
         <v>44972</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45980.71736111111</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45161.94315972222</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>45981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45518,7 +45518,7 @@
         <v>45981.57957175926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45715.51086805556</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>44658</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>45985.58819444444</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>45985</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>45982.55253472222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>45636.5433449074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -45937,7 +45937,7 @@
         <v>45985</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44847</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>45492</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>45762.59491898148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -46232,7 +46232,7 @@
         <v>44341</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>45754.49039351852</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -46351,7 +46351,7 @@
         <v>45000</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44917</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>45478</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>44419.94174768519</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46589,7 +46589,7 @@
         <v>45989</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45989</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>45540</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>45225.96753472222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46822,7 +46822,7 @@
         <v>45993.65892361111</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -46879,7 +46879,7 @@
         <v>44328</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45595</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>44987</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45653.5150462963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47117,7 +47117,7 @@
         <v>45993.67761574074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         <v>45993.65197916667</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47231,7 +47231,7 @@
         <v>44911.94</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -47293,7 +47293,7 @@
         <v>45993.66409722222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47350,7 +47350,7 @@
         <v>45453.95199074074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>45586</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -47474,7 +47474,7 @@
         <v>45992.39248842592</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47531,7 +47531,7 @@
         <v>45993</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47588,7 +47588,7 @@
         <v>45994</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47645,7 +47645,7 @@
         <v>45692.64475694444</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47707,7 +47707,7 @@
         <v>45195.94755787037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47769,7 +47769,7 @@
         <v>45748</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         <v>46036.53188657408</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>45505.9299537037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -47945,7 +47945,7 @@
         <v>46034</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -48002,7 +48002,7 @@
         <v>44972</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -48064,7 +48064,7 @@
         <v>45478.94722222222</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -48126,7 +48126,7 @@
         <v>45996.63483796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48183,7 +48183,7 @@
         <v>44371</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>44943</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48297,7 +48297,7 @@
         <v>45232</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -48354,7 +48354,7 @@
         <v>44657</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>45436.94604166667</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -48473,7 +48473,7 @@
         <v>45999.7365162037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48530,7 +48530,7 @@
         <v>45999.74017361111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48587,7 +48587,7 @@
         <v>45999.74972222222</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48644,7 +48644,7 @@
         <v>46038.59427083333</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         <v>45996.59995370371</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         <v>45996.60284722222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48820,7 +48820,7 @@
         <v>45089</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48877,7 +48877,7 @@
         <v>45999.72875</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -48934,7 +48934,7 @@
         <v>46038.43719907408</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48991,7 +48991,7 @@
         <v>45442</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -49053,7 +49053,7 @@
         <v>45216.95604166666</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -49115,7 +49115,7 @@
         <v>45520.61695601852</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45999.74579861111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>46001.60319444445</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45999.76028935185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45478.94733796296</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -49410,7 +49410,7 @@
         <v>45552</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -49472,7 +49472,7 @@
         <v>46001.54938657407</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -49529,7 +49529,7 @@
         <v>45999.77453703704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         <v>45435.94553240741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -49648,7 +49648,7 @@
         <v>45399</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -49705,7 +49705,7 @@
         <v>45622</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -49767,7 +49767,7 @@
         <v>46001.68586805555</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>45492.9580324074</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -49891,7 +49891,7 @@
         <v>45232</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -49948,7 +49948,7 @@
         <v>46003.33113425926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>45188</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -50062,7 +50062,7 @@
         <v>45428.97231481481</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -50124,7 +50124,7 @@
         <v>45622</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -50181,7 +50181,7 @@
         <v>46045.49011574074</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -50243,7 +50243,7 @@
         <v>45574</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -50300,7 +50300,7 @@
         <v>45457.96708333334</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -50362,7 +50362,7 @@
         <v>45582</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -50424,7 +50424,7 @@
         <v>45408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -50481,7 +50481,7 @@
         <v>46048.43972222223</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -50538,7 +50538,7 @@
         <v>45720</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -50595,7 +50595,7 @@
         <v>45453</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -50657,7 +50657,7 @@
         <v>45443</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>44881</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -50776,7 +50776,7 @@
         <v>46049.42791666667</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -50838,7 +50838,7 @@
         <v>46006</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -50895,7 +50895,7 @@
         <v>46006.7149074074</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -50952,7 +50952,7 @@
         <v>46048.5734375</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -51009,7 +51009,7 @@
         <v>46006.69791666666</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -51066,7 +51066,7 @@
         <v>45737</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -51128,7 +51128,7 @@
         <v>45552.5315162037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>46009</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -51247,7 +51247,7 @@
         <v>45756</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45207.93900462963</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -51371,7 +51371,7 @@
         <v>45225.9678587963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -51433,7 +51433,7 @@
         <v>45148.96195601852</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -51495,7 +51495,7 @@
         <v>45205</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>44470.31884259259</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>46003</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -51676,7 +51676,7 @@
         <v>46055.48990740741</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>46055.40685185185</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -51790,7 +51790,7 @@
         <v>45622</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -51847,7 +51847,7 @@
         <v>46055.40693287037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -51904,7 +51904,7 @@
         <v>45236</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -51966,7 +51966,7 @@
         <v>46048</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -52023,7 +52023,7 @@
         <v>44903</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -52080,7 +52080,7 @@
         <v>44253</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -52137,7 +52137,7 @@
         <v>46013</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -52194,7 +52194,7 @@
         <v>45222</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>45429</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -52318,7 +52318,7 @@
         <v>46055.40695601852</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -52375,7 +52375,7 @@
         <v>46056.45396990741</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -52432,7 +52432,7 @@
         <v>45617</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -52494,7 +52494,7 @@
         <v>44637</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -52551,7 +52551,7 @@
         <v>45475.94844907407</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -52613,7 +52613,7 @@
         <v>45636</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -52675,7 +52675,7 @@
         <v>45770</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -52732,7 +52732,7 @@
         <v>45526.71134259259</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -52794,7 +52794,7 @@
         <v>45246.96861111111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -52856,7 +52856,7 @@
         <v>45149.95256944445</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -52918,7 +52918,7 @@
         <v>45186.51590277778</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -52975,7 +52975,7 @@
         <v>46058.59981481481</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -53032,7 +53032,7 @@
         <v>45152</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -53089,7 +53089,7 @@
         <v>45148.96185185185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -53151,7 +53151,7 @@
         <v>45511.95214120371</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -53213,7 +53213,7 @@
         <v>45775.61550925926</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -53275,7 +53275,7 @@
         <v>45526.61637731481</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -53337,7 +53337,7 @@
         <v>45509</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -53394,7 +53394,7 @@
         <v>45509</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -53456,7 +53456,7 @@
         <v>45568.34429398148</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -53518,7 +53518,7 @@
         <v>44532</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -53575,7 +53575,7 @@
         <v>44995</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -53637,7 +53637,7 @@
         <v>45239</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -53694,7 +53694,7 @@
         <v>44881</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -53751,7 +53751,7 @@
         <v>45216.9580787037</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -53813,7 +53813,7 @@
         <v>45487.9563425926</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         <v>45756</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>45756</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45756</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -54046,7 +54046,7 @@
         <v>44972</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>44609</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>45660.42734953704</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>45660.53215277778</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45149.95310185185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -54356,7 +54356,7 @@
         <v>45618.43804398148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -54418,7 +54418,7 @@
         <v>45659</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>45659</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>45159</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -54589,7 +54589,7 @@
         <v>45190</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -54651,7 +54651,7 @@
         <v>45297</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -54708,7 +54708,7 @@
         <v>44972</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -54770,7 +54770,7 @@
         <v>45117</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44628</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>44361</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -54951,7 +54951,7 @@
         <v>45485</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -55008,7 +55008,7 @@
         <v>45518.97211805556</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -55070,7 +55070,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -55127,7 +55127,7 @@
         <v>45092.94042824074</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -55189,7 +55189,7 @@
         <v>44698</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -55246,7 +55246,7 @@
         <v>45545.53619212963</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -55308,7 +55308,7 @@
         <v>45238</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>45238</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -55432,7 +55432,7 @@
         <v>45376</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -55489,7 +55489,7 @@
         <v>45400</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>45206.95761574074</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -55608,7 +55608,7 @@
         <v>45225</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -55670,7 +55670,7 @@
         <v>44522</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -55732,7 +55732,7 @@
         <v>45084</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -55794,7 +55794,7 @@
         <v>45154</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -55856,7 +55856,7 @@
         <v>45492.95818287037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -55918,7 +55918,7 @@
         <v>45492.95939814814</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -55980,7 +55980,7 @@
         <v>45492.95981481481</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -56042,7 +56042,7 @@
         <v>45469</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -56104,7 +56104,7 @@
         <v>44389</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -56161,7 +56161,7 @@
         <v>45754.49008101852</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -56223,7 +56223,7 @@
         <v>45617</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -56285,7 +56285,7 @@
         <v>45090</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45541.63592592593</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -56409,7 +56409,7 @@
         <v>45152</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         <v>45236</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -56528,7 +56528,7 @@
         <v>44985</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -56585,7 +56585,7 @@
         <v>44939</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -56647,7 +56647,7 @@
         <v>45574.40974537037</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -56704,7 +56704,7 @@
         <v>45450.9444212963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -56766,7 +56766,7 @@
         <v>45278</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -56823,7 +56823,7 @@
         <v>44243</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -56880,7 +56880,7 @@
         <v>45748</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -56937,7 +56937,7 @@
         <v>45565.4912962963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -56999,7 +56999,7 @@
         <v>44743</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45194</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45295</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -57180,7 +57180,7 @@
         <v>44972</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>45545.40717592592</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -57304,7 +57304,7 @@
         <v>45545</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -57366,7 +57366,7 @@
         <v>45545</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -57428,7 +57428,7 @@
         <v>44826</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -57485,7 +57485,7 @@
         <v>45000</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -57542,7 +57542,7 @@
         <v>45435.94324074074</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -57604,7 +57604,7 @@
         <v>44943</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -57661,7 +57661,7 @@
         <v>44235</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -57718,7 +57718,7 @@
         <v>45300</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -57775,7 +57775,7 @@
         <v>44628.925625</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -57832,7 +57832,7 @@
         <v>45042</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -57894,7 +57894,7 @@
         <v>45222.9678125</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -57956,7 +57956,7 @@
         <v>44235</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -58013,7 +58013,7 @@
         <v>44923</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -58075,7 +58075,7 @@
         <v>45205</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -58137,7 +58137,7 @@
         <v>45419</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -58194,7 +58194,7 @@
         <v>45617</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -58256,7 +58256,7 @@
         <v>45524.35605324074</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -58318,7 +58318,7 @@
         <v>44564.80189814815</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -58375,7 +58375,7 @@
         <v>44435</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -58432,7 +58432,7 @@
         <v>44977.98401620371</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -58494,7 +58494,7 @@
         <v>44977</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -58556,7 +58556,7 @@
         <v>44857</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -58613,7 +58613,7 @@
         <v>45349</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -58670,7 +58670,7 @@
         <v>44615</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>44985</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -58784,7 +58784,7 @@
         <v>44735</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>44488</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -58903,7 +58903,7 @@
         <v>45453.95314814815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -58965,7 +58965,7 @@
         <v>45453.95326388889</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -59027,7 +59027,7 @@
         <v>45730.37549768519</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -59089,7 +59089,7 @@
         <v>45730.37681712963</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -59151,7 +59151,7 @@
         <v>45769</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -59213,7 +59213,7 @@
         <v>45524.34668981482</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         <v>45238</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -59337,7 +59337,7 @@
         <v>45575.49100694444</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -59399,7 +59399,7 @@
         <v>45520.58966435185</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -59461,7 +59461,7 @@
         <v>44307</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -59518,7 +59518,7 @@
         <v>44307</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -59575,7 +59575,7 @@
         <v>45254.96524305556</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -59637,7 +59637,7 @@
         <v>45743</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -59694,7 +59694,7 @@
         <v>44903</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -59751,7 +59751,7 @@
         <v>45775</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -59813,7 +59813,7 @@
         <v>45748.62240740741</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -59870,7 +59870,7 @@
         <v>45595</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -59927,7 +59927,7 @@
         <v>45595.4618287037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -59984,7 +59984,7 @@
         <v>45573</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -60046,7 +60046,7 @@
         <v>44859</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -60103,7 +60103,7 @@
         <v>45316.9474537037</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         <v>45390.95230324074</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -60227,7 +60227,7 @@
         <v>45730</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -60289,7 +60289,7 @@
         <v>44640</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -60346,7 +60346,7 @@
         <v>45278.94263888889</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -60408,7 +60408,7 @@
         <v>45147.95452546296</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -60470,7 +60470,7 @@
         <v>45534.64422453703</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -60532,7 +60532,7 @@
         <v>45534.64508101852</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -60594,7 +60594,7 @@
         <v>44235</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -60651,7 +60651,7 @@
         <v>45709</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -60708,7 +60708,7 @@
         <v>45541.38586805556</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -60770,7 +60770,7 @@
         <v>45362.96927083333</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45526.46234953704</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45232</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         <v>45377.94945601852</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -61008,7 +61008,7 @@
         <v>45635.34425925926</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -61070,7 +61070,7 @@
         <v>44972</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -61132,7 +61132,7 @@
         <v>45516.9525462963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -61194,7 +61194,7 @@
         <v>45660.40270833333</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -61251,7 +61251,7 @@
         <v>45660.41033564815</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -61308,7 +61308,7 @@
         <v>44888</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -61365,7 +61365,7 @@
         <v>45048</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -61422,7 +61422,7 @@
         <v>45754.49045138889</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -61484,7 +61484,7 @@
         <v>44747</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -61546,7 +61546,7 @@
         <v>45733</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -61608,7 +61608,7 @@
         <v>45516.95302083333</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -61670,7 +61670,7 @@
         <v>45516.95311342592</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -61732,7 +61732,7 @@
         <v>45526.56435185186</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -61789,7 +61789,7 @@
         <v>45762</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -61851,7 +61851,7 @@
         <v>45147.9540625</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -61913,7 +61913,7 @@
         <v>44963.92259259259</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -61970,7 +61970,7 @@
         <v>45399</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45099</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45154.92628472222</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -62151,7 +62151,7 @@
         <v>45158.31186342592</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -62208,7 +62208,7 @@
         <v>45649.56392361111</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -62265,7 +62265,7 @@
         <v>44693.32515046297</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -62322,7 +62322,7 @@
         <v>45377.94954861111</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -62384,7 +62384,7 @@
         <v>45265.95677083333</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -62446,7 +62446,7 @@
         <v>44909</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -62503,7 +62503,7 @@
         <v>45378</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -62560,7 +62560,7 @@
         <v>45442.96064814815</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -62622,7 +62622,7 @@
         <v>45777.59427083333</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -62684,7 +62684,7 @@
         <v>45777.53157407408</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -62746,7 +62746,7 @@
         <v>45492.96108796296</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -62808,7 +62808,7 @@
         <v>45779</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -62870,7 +62870,7 @@
         <v>44949</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -62927,7 +62927,7 @@
         <v>45779</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -62989,7 +62989,7 @@
         <v>45782</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -63051,7 +63051,7 @@
         <v>45782.55241898148</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -63113,7 +63113,7 @@
         <v>45783</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -63175,7 +63175,7 @@
         <v>45783.46917824074</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45784.59418981482</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -63299,7 +63299,7 @@
         <v>45216</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -63356,7 +63356,7 @@
         <v>45785.3443287037</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -63418,7 +63418,7 @@
         <v>45784.63592592593</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -63480,7 +63480,7 @@
         <v>45140</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -63537,7 +63537,7 @@
         <v>45784</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -63599,7 +63599,7 @@
         <v>45784</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -63656,7 +63656,7 @@
         <v>45791.57324074074</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -63718,7 +63718,7 @@
         <v>45433</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -63775,7 +63775,7 @@
         <v>45586</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         <v>45793.59461805555</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -63899,7 +63899,7 @@
         <v>45793</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -63961,7 +63961,7 @@
         <v>45587</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -64023,7 +64023,7 @@
         <v>45793</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -64085,7 +64085,7 @@
         <v>45659</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -64147,7 +64147,7 @@
         <v>45800</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -64209,7 +64209,7 @@
         <v>45589</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -64271,7 +64271,7 @@
         <v>45548.46918981482</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -64333,7 +64333,7 @@
         <v>45757</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -64395,7 +64395,7 @@
         <v>45792.34643518519</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -64457,7 +64457,7 @@
         <v>45792.34540509259</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -64519,7 +64519,7 @@
         <v>45792</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -64581,7 +64581,7 @@
         <v>45792</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -64643,7 +64643,7 @@
         <v>45589</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -64705,7 +64705,7 @@
         <v>45587</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -64767,7 +64767,7 @@
         <v>44623</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -64829,7 +64829,7 @@
         <v>45797</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -64886,7 +64886,7 @@
         <v>45518</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -64948,7 +64948,7 @@
         <v>45147</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -575,7 +575,7 @@
         <v>44753</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>44350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44972</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44412</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>45636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44972</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45989</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45947.46935185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45636</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44494</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>45154</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44881</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44266</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45989</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44361</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45561</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>45583</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44972</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44972</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45201</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>44522</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45716</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45478</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>45989</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>45054</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>44474</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45764</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45636</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44945</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45915</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>45051</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45636</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45887</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45770</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45205</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44657</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45349</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44235</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>44361</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44964</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>45463</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45636</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>45238</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>44964</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45399</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7288,7 +7288,7 @@
         <v>45644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45509</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45149</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45841.3452662037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45478</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45497</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45463</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>45573</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>45531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45512</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>45589</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>45208</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44664</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45764</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8961,7 +8961,7 @@
         <v>45799.65734953704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45709</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>45205</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>45552</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>45545</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45575</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>45665</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
         <v>45989</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>44806</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45461</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>45558</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>45478</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>46009</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44806</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>45545</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45113</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45188.94413194444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44648</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44732</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44515</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45561</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>45929.594375</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45839.46946759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44235</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>45546</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>45961.42766203704</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>45618</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45545</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45560</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>44972</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>45751</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44266</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>45643</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45461</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45821</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>45098</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>45834.47067129629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>45936</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>44309</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45903</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>45874</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45618</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44401</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>44529</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>45582</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>45278</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45560</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>46048</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45541.38572916666</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45777.46910879629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44532</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>45526.62043981482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>45804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45105</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>45821</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>44522</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>45240</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45545</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45936</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45526</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>45636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>45736</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>45824</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>45887</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>44371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45545</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44994</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44494</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>44560</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>45523.38783564815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45254</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45462</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>46056.44005787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45565</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45462</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45756</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>45573</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>44515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>44361</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45586</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44812</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44419.94226851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>44361</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>44628</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44619.87392361111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>44619.86621527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44810</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44867.95054398148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44452</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>44713</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44628.92569444444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44613</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44844</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44756.94431712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44756.94440972222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>44307</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>44686</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44852.95126157408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44619</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44307</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44837.66417824074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44531</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>44532</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>44817</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>44503</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>44371</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>44253</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>44690</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44434</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>44858.95158564814</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>44389.5819675926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>44743</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44743.94269675926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44889.94913194444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44419.94237268518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>44419.94289351852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44419.94302083334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44756</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44433</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44754</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44442</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44619.88071759259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44616.93883101852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>44482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44755.62866898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>44532</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>44743</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>44743</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44852.95145833334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>44743.620625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>44462</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>44412</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>44708</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>44369.91984953704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44532</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>44805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44879</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>44799</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44377</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44452</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44341</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44617.9343287037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>44495.94003472223</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44637</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>44545.9203587963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -21075,7 +21075,7 @@
         <v>44545</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
         <v>44452</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44545.92033564814</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44357</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>44341</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44837</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>44743</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44442.94226851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>44972</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44459.71978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>44545.92059027778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45597.5109837963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>45471</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45481.95178240741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>45560</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45555.51084490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45617.49107638889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44914</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45443</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>45470.9693287037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45048</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45660.419375</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45518.97256944444</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>44957</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>44939</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>44657</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>45140</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>45162.94335648148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22818,7 +22818,7 @@
         <v>45107</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>45603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45749</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>45254</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45541.63569444444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>45541.63581018519</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45190</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45000</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45630</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>44889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45712</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>44627</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45478</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45237.97364583334</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45571</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45238</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>44901</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23946,7 +23946,7 @@
         <v>44923</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45388</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -24060,7 +24060,7 @@
         <v>45567.37387731481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44942</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>45709</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>45693.53200231482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44515</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45502</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44378</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44330</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44522</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45194</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45733</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45534.63586805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45114.94138888889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44748</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45799.69844907407</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>45147.95444444445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>45166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45202.9413425926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45884.55297453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45149.95266203704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45799.49028935185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45799.49025462963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>45512.95870370371</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45237.97375</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45415.94033564815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45803.38644675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>45545.49028935185</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45555.57373842593</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>45800.44892361111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>45531.4075</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45884.42813657408</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45800.44840277778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44847</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45623</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>45884.49061342593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>45800.57380787037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>45800</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>45804.3449537037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45096</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45239</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45636.55063657407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44802</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26723,7 +26723,7 @@
         <v>45804.59461805555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45546.63689814815</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45440.92866898148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45805</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45573</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45583</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45889.46940972222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45810.53185185185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45888.59435185185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45810.59417824074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45889.59453703704</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45730.37633101852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45730</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>45810</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45810.53188657408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44978</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45813.52791666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>45401.94358796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>45890.49021990741</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>45890.46978009259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45890.44863425926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45890.44875</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45894</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44971</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>45817.51078703703</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>45709</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>45817.53157407408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>45469</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45817.61506944444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45894.65951388889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45119</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45817</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45817.67755787037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45817.61545138889</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>45817.65658564815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>45232</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>45526.61646990741</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45526.61664351852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44686</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45656.51119212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45894.57322916666</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45572.51092592593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>45784</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>44568</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45338</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45140</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>44890</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45440.95310185185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45195</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45238</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45238</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44246</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>45898</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45595.41166666667</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>45597</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>44852.94685185186</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>45820.6360300926</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>44397</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45239</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45902</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>45821</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45931</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>44911.51318287037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>45748.63356481482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45904</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45265.95667824074</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45904</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>45659</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>45824.69865740741</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45831.58256944444</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45586.38592592593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30995,7 +30995,7 @@
         <v>45799</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>45707.46905092592</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45823</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>45789</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45824.34478009259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45403</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45372</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>45824.69888888889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45308</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>45250.96092592592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31590,7 +31590,7 @@
         <v>45880</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>45259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44515</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44515</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>45579</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>45915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45915</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>45672.45302083333</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>44826</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>45826.45104166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -32175,7 +32175,7 @@
         <v>45826.45702546297</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>44847</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>45558</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32356,7 +32356,7 @@
         <v>45636</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32413,7 +32413,7 @@
         <v>45917</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32470,7 +32470,7 @@
         <v>45463</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45730</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32594,7 +32594,7 @@
         <v>45730</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>45831.38579861111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32718,7 +32718,7 @@
         <v>45240</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
         <v>45206.95747685185</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44505</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>45918</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>45923.48195601852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -33018,7 +33018,7 @@
         <v>45636.36488425926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -33080,7 +33080,7 @@
         <v>45730</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>45730.37515046296</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -33204,7 +33204,7 @@
         <v>45730</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45197.94158564815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
         <v>45922.46759259259</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33385,7 +33385,7 @@
         <v>45919</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33442,7 +33442,7 @@
         <v>45656</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45833</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>44847</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33618,7 +33618,7 @@
         <v>45463.94247685185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33680,7 +33680,7 @@
         <v>45833</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33737,7 +33737,7 @@
         <v>45161</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33799,7 +33799,7 @@
         <v>45834</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45590.37554398148</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>44328</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45280</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45929.59428240741</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45614</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -34161,7 +34161,7 @@
         <v>45618</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -34223,7 +34223,7 @@
         <v>45929</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -34285,7 +34285,7 @@
         <v>45495.9509837963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45929.50732638889</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34404,7 +34404,7 @@
         <v>45331</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         <v>45834</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34518,7 +34518,7 @@
         <v>45834.47035879629</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>45226.96258101852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44452</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44452</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45972</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>45343</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>45791</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45972</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>45786</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>45777</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>45769</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45839</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>44981.72646990741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>45170.95747685185</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
         <v>44316.41677083333</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>45735</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         <v>45786</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
         <v>45734</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35579,7 +35579,7 @@
         <v>45147.95390046296</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>45841</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>45936.55251157407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45841.65045138889</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45216.95800925926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         <v>45483.96994212963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>45979.25059027778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -36003,7 +36003,7 @@
         <v>44543</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -36060,7 +36060,7 @@
         <v>45937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         <v>45841.34461805555</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>44743.94145833333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>45937.36527777778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44963.93989583333</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>45840</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>45260.9258912037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>45939.65079861111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36541,7 +36541,7 @@
         <v>44855</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36603,7 +36603,7 @@
         <v>45117</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36660,7 +36660,7 @@
         <v>45248</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36717,7 +36717,7 @@
         <v>45770</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45937.4828125</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45943.57296296296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45845</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45251.92947916667</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45636</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         <v>45845</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -37131,7 +37131,7 @@
         <v>45625</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>45636</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>45636</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>45833</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>44540</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37431,7 +37431,7 @@
         <v>45944.42415509259</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>45944.3862037037</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37555,7 +37555,7 @@
         <v>45847.57950231482</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
         <v>45847.58480324074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37669,7 +37669,7 @@
         <v>45946.67149305555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
         <v>45847.53211805555</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37788,7 +37788,7 @@
         <v>45947.42334490741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37845,7 +37845,7 @@
         <v>45125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37902,7 +37902,7 @@
         <v>45853.59447916667</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>45853.59453703704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -38026,7 +38026,7 @@
         <v>45161</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -38088,7 +38088,7 @@
         <v>44235</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -38145,7 +38145,7 @@
         <v>45408</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -38202,7 +38202,7 @@
         <v>45576.34444444445</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45854</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         <v>45854.3653587963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -38388,7 +38388,7 @@
         <v>45854.36543981481</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38450,7 +38450,7 @@
         <v>44322</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38507,7 +38507,7 @@
         <v>45951.55436342592</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38564,7 +38564,7 @@
         <v>45951.46043981481</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38621,7 +38621,7 @@
         <v>45951.47362268518</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45205</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>45951.55298611111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45757</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45206.95854166667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>45952.61252314815</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38973,7 +38973,7 @@
         <v>45862</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -39030,7 +39030,7 @@
         <v>45862.44034722223</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -39087,7 +39087,7 @@
         <v>45541</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>45953.68225694444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45700</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45995.71637731481</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45625</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -39382,7 +39382,7 @@
         <v>45954.34572916666</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         <v>45954.59429398148</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>44235</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>44235</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>44488</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45297.83246527778</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45740.61644675926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45957.44878472222</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>45771.60482638889</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>45912</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45873</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -40019,7 +40019,7 @@
         <v>45957.42777777778</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>45870</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>44972</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>45574</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         <v>45874.63747685185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -40329,7 +40329,7 @@
         <v>45874.71912037037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45265.95685185185</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45874.59450231482</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40515,7 +40515,7 @@
         <v>45876</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40577,7 +40577,7 @@
         <v>45639</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>45957.82777777778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40696,7 +40696,7 @@
         <v>45775</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40753,7 +40753,7 @@
         <v>45546</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40810,7 +40810,7 @@
         <v>45238</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45877.34436342592</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45877.34444444445</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45876</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>45642.61490740741</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45877.36513888889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45089</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45492.95777777778</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45399</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -41353,7 +41353,7 @@
         <v>45399</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -41410,7 +41410,7 @@
         <v>45558</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>45443</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41534,7 +41534,7 @@
         <v>44977</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41591,7 +41591,7 @@
         <v>45508</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41648,7 +41648,7 @@
         <v>45957</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41705,7 +41705,7 @@
         <v>45957</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41762,7 +41762,7 @@
         <v>45957</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -41819,7 +41819,7 @@
         <v>45957</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41876,7 +41876,7 @@
         <v>45957</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41933,7 +41933,7 @@
         <v>45957</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41990,7 +41990,7 @@
         <v>45957</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>45957</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>45957</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>45957</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45515</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45957</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42332,7 +42332,7 @@
         <v>45989</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>45989</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42456,7 +42456,7 @@
         <v>45989</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         <v>45966</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>45989</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45989</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>45883.6364699074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42751,7 +42751,7 @@
         <v>45989</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>45883.67839120371</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -42870,7 +42870,7 @@
         <v>45967.38887731481</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42927,7 +42927,7 @@
         <v>45967</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42984,7 +42984,7 @@
         <v>45968.34498842592</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -43046,7 +43046,7 @@
         <v>45636</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -43108,7 +43108,7 @@
         <v>45545</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -43165,7 +43165,7 @@
         <v>45415</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43222,7 +43222,7 @@
         <v>45770</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -43284,7 +43284,7 @@
         <v>45229</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         <v>45883.63611111111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -43403,7 +43403,7 @@
         <v>45968.34462962963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>45883.57451388889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43527,7 +43527,7 @@
         <v>44515</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43584,7 +43584,7 @@
         <v>45883.53290509259</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45883</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43708,7 +43708,7 @@
         <v>45883.59429398148</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43770,7 +43770,7 @@
         <v>45709</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -43827,7 +43827,7 @@
         <v>45971.51086805556</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -43889,7 +43889,7 @@
         <v>45883.36547453704</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43946,7 +43946,7 @@
         <v>45883.36553240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -44003,7 +44003,7 @@
         <v>45883.53247685185</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>45952</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -44127,7 +44127,7 @@
         <v>45883.63638888889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -44184,7 +44184,7 @@
         <v>45883.53228009259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>45883.53263888889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45882.93524305556</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>45972.34466435185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45882.95137731481</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>45538.63577546296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45635</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45265</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>45450.94366898148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44727,7 +44727,7 @@
         <v>45643</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44789,7 +44789,7 @@
         <v>44993.94818287037</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44851,7 +44851,7 @@
         <v>45884.42768518518</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>45142.95103009259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44975,7 +44975,7 @@
         <v>45884.46951388889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -45037,7 +45037,7 @@
         <v>45625</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45435.94567129629</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45216.95556712963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>45979.59443287037</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45280,7 +45280,7 @@
         <v>44972</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45980.71736111111</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45161.94315972222</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>45981</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45518,7 +45518,7 @@
         <v>45981.57957175926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45715.51086805556</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>44658</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45694,7 +45694,7 @@
         <v>45985.58819444444</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45756,7 +45756,7 @@
         <v>45985</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45813,7 +45813,7 @@
         <v>45982.55253472222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45875,7 +45875,7 @@
         <v>45636.5433449074</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -45937,7 +45937,7 @@
         <v>45985</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45994,7 +45994,7 @@
         <v>44847</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -46051,7 +46051,7 @@
         <v>44847</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -46108,7 +46108,7 @@
         <v>45492</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>45762.59491898148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -46232,7 +46232,7 @@
         <v>44341</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>45754.49039351852</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -46351,7 +46351,7 @@
         <v>45000</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44917</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>45478</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>44419.94174768519</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46589,7 +46589,7 @@
         <v>45989</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45989</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>45540</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>45225.96753472222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46822,7 +46822,7 @@
         <v>45993.65892361111</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -46879,7 +46879,7 @@
         <v>44328</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45595</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>44987</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45653.5150462963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47117,7 +47117,7 @@
         <v>45993.67761574074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -47174,7 +47174,7 @@
         <v>45993.65197916667</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47231,7 +47231,7 @@
         <v>44911.94</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -47293,7 +47293,7 @@
         <v>45993.66409722222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47350,7 +47350,7 @@
         <v>45453.95199074074</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>45586</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -47474,7 +47474,7 @@
         <v>45992.39248842592</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47531,7 +47531,7 @@
         <v>45993</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47588,7 +47588,7 @@
         <v>45994</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47645,7 +47645,7 @@
         <v>45692.64475694444</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47707,7 +47707,7 @@
         <v>45195.94755787037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47769,7 +47769,7 @@
         <v>45748</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         <v>46036.53188657408</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>45505.9299537037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -47945,7 +47945,7 @@
         <v>46034</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -48002,7 +48002,7 @@
         <v>44972</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -48064,7 +48064,7 @@
         <v>45478.94722222222</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -48126,7 +48126,7 @@
         <v>45996.63483796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48183,7 +48183,7 @@
         <v>44371</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -48240,7 +48240,7 @@
         <v>44943</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48297,7 +48297,7 @@
         <v>45232</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -48354,7 +48354,7 @@
         <v>44657</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48411,7 +48411,7 @@
         <v>45436.94604166667</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -48473,7 +48473,7 @@
         <v>45999.7365162037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48530,7 +48530,7 @@
         <v>45999.74017361111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48587,7 +48587,7 @@
         <v>45999.74972222222</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48644,7 +48644,7 @@
         <v>46038.59427083333</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         <v>45996.59995370371</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         <v>45996.60284722222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48820,7 +48820,7 @@
         <v>45089</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48877,7 +48877,7 @@
         <v>45999.72875</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -48934,7 +48934,7 @@
         <v>46038.43719907408</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48991,7 +48991,7 @@
         <v>45442</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -49053,7 +49053,7 @@
         <v>45216.95604166666</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -49115,7 +49115,7 @@
         <v>45520.61695601852</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -49177,7 +49177,7 @@
         <v>45999.74579861111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -49234,7 +49234,7 @@
         <v>46001.60319444445</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -49291,7 +49291,7 @@
         <v>45999.76028935185</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -49348,7 +49348,7 @@
         <v>45478.94733796296</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -49410,7 +49410,7 @@
         <v>45552</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -49472,7 +49472,7 @@
         <v>46001.54938657407</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -49529,7 +49529,7 @@
         <v>45999.77453703704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         <v>45435.94553240741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -49648,7 +49648,7 @@
         <v>45399</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -49705,7 +49705,7 @@
         <v>45622</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -49767,7 +49767,7 @@
         <v>46001.68586805555</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -49829,7 +49829,7 @@
         <v>45492.9580324074</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -49891,7 +49891,7 @@
         <v>45232</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -49948,7 +49948,7 @@
         <v>46003.33113425926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -50005,7 +50005,7 @@
         <v>45188</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -50062,7 +50062,7 @@
         <v>45428.97231481481</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -50124,7 +50124,7 @@
         <v>45622</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -50181,7 +50181,7 @@
         <v>46045.49011574074</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -50243,7 +50243,7 @@
         <v>45574</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -50300,7 +50300,7 @@
         <v>45457.96708333334</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -50362,7 +50362,7 @@
         <v>45582</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -50424,7 +50424,7 @@
         <v>45408</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -50481,7 +50481,7 @@
         <v>46048.43972222223</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -50538,7 +50538,7 @@
         <v>45720</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -50595,7 +50595,7 @@
         <v>45453</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -50657,7 +50657,7 @@
         <v>45443</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>44881</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -50776,7 +50776,7 @@
         <v>46049.42791666667</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -50838,7 +50838,7 @@
         <v>46006</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -50895,7 +50895,7 @@
         <v>46006.7149074074</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -50952,7 +50952,7 @@
         <v>46048.5734375</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -51009,7 +51009,7 @@
         <v>46006.69791666666</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -51066,7 +51066,7 @@
         <v>45737</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -51128,7 +51128,7 @@
         <v>45552.5315162037</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -51190,7 +51190,7 @@
         <v>46009</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -51247,7 +51247,7 @@
         <v>45756</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         <v>45207.93900462963</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -51371,7 +51371,7 @@
         <v>45225.9678587963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -51433,7 +51433,7 @@
         <v>45148.96195601852</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -51495,7 +51495,7 @@
         <v>45205</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>44470.31884259259</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>46003</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -51676,7 +51676,7 @@
         <v>46055.48990740741</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>46055.40685185185</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -51790,7 +51790,7 @@
         <v>45622</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -51847,7 +51847,7 @@
         <v>46055.40693287037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -51904,7 +51904,7 @@
         <v>45236</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -51966,7 +51966,7 @@
         <v>46048</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -52023,7 +52023,7 @@
         <v>44903</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -52080,7 +52080,7 @@
         <v>44253</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -52137,7 +52137,7 @@
         <v>46013</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -52194,7 +52194,7 @@
         <v>45222</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>45429</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -52318,7 +52318,7 @@
         <v>46055.40695601852</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -52375,7 +52375,7 @@
         <v>46056.45396990741</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -52432,7 +52432,7 @@
         <v>45617</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -52494,7 +52494,7 @@
         <v>44637</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -52551,7 +52551,7 @@
         <v>45475.94844907407</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -52613,7 +52613,7 @@
         <v>45636</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -52675,7 +52675,7 @@
         <v>45770</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -52732,7 +52732,7 @@
         <v>45526.71134259259</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -52794,7 +52794,7 @@
         <v>45246.96861111111</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -52856,7 +52856,7 @@
         <v>45149.95256944445</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -52918,7 +52918,7 @@
         <v>45186.51590277778</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -52975,7 +52975,7 @@
         <v>46058.59981481481</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -53032,7 +53032,7 @@
         <v>45152</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -53089,7 +53089,7 @@
         <v>45148.96185185185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -53151,7 +53151,7 @@
         <v>45511.95214120371</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -53213,7 +53213,7 @@
         <v>45775.61550925926</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -53275,7 +53275,7 @@
         <v>45526.61637731481</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -53337,7 +53337,7 @@
         <v>45509</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -53394,7 +53394,7 @@
         <v>45509</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -53456,7 +53456,7 @@
         <v>45568.34429398148</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -53518,7 +53518,7 @@
         <v>44532</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -53575,7 +53575,7 @@
         <v>44995</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -53637,7 +53637,7 @@
         <v>45239</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -53694,7 +53694,7 @@
         <v>44881</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -53751,7 +53751,7 @@
         <v>45216.9580787037</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -53813,7 +53813,7 @@
         <v>45487.9563425926</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         <v>45756</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -53932,7 +53932,7 @@
         <v>45756</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -53989,7 +53989,7 @@
         <v>45756</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -54046,7 +54046,7 @@
         <v>44972</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>44609</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>45660.42734953704</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -54232,7 +54232,7 @@
         <v>45660.53215277778</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45149.95310185185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -54356,7 +54356,7 @@
         <v>45618.43804398148</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -54418,7 +54418,7 @@
         <v>45659</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>45659</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>45159</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -54589,7 +54589,7 @@
         <v>45190</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -54651,7 +54651,7 @@
         <v>45297</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -54708,7 +54708,7 @@
         <v>44972</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -54770,7 +54770,7 @@
         <v>45117</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>44628</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>44361</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -54951,7 +54951,7 @@
         <v>45485</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -55008,7 +55008,7 @@
         <v>45518.97211805556</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -55070,7 +55070,7 @@
         <v>45140</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -55127,7 +55127,7 @@
         <v>45092.94042824074</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -55189,7 +55189,7 @@
         <v>44698</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -55246,7 +55246,7 @@
         <v>45545.53619212963</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -55308,7 +55308,7 @@
         <v>45238</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -55370,7 +55370,7 @@
         <v>45238</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -55432,7 +55432,7 @@
         <v>45376</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -55489,7 +55489,7 @@
         <v>45400</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -55546,7 +55546,7 @@
         <v>45206.95761574074</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -55608,7 +55608,7 @@
         <v>45225</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -55670,7 +55670,7 @@
         <v>44522</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -55732,7 +55732,7 @@
         <v>45084</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -55794,7 +55794,7 @@
         <v>45154</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -55856,7 +55856,7 @@
         <v>45492.95818287037</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -55918,7 +55918,7 @@
         <v>45492.95939814814</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -55980,7 +55980,7 @@
         <v>45492.95981481481</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -56042,7 +56042,7 @@
         <v>45469</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -56104,7 +56104,7 @@
         <v>44389</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -56161,7 +56161,7 @@
         <v>45754.49008101852</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -56223,7 +56223,7 @@
         <v>45617</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -56285,7 +56285,7 @@
         <v>45090</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -56347,7 +56347,7 @@
         <v>45541.63592592593</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -56409,7 +56409,7 @@
         <v>45152</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         <v>45236</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -56528,7 +56528,7 @@
         <v>44985</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -56585,7 +56585,7 @@
         <v>44939</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -56647,7 +56647,7 @@
         <v>45574.40974537037</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -56704,7 +56704,7 @@
         <v>45450.9444212963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -56766,7 +56766,7 @@
         <v>45278</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -56823,7 +56823,7 @@
         <v>44243</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -56880,7 +56880,7 @@
         <v>45748</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -56937,7 +56937,7 @@
         <v>45565.4912962963</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -56999,7 +56999,7 @@
         <v>44743</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -57061,7 +57061,7 @@
         <v>45194</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -57118,7 +57118,7 @@
         <v>45295</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -57180,7 +57180,7 @@
         <v>44972</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>45545.40717592592</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -57304,7 +57304,7 @@
         <v>45545</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -57366,7 +57366,7 @@
         <v>45545</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -57428,7 +57428,7 @@
         <v>44826</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -57485,7 +57485,7 @@
         <v>45000</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -57542,7 +57542,7 @@
         <v>45435.94324074074</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -57604,7 +57604,7 @@
         <v>44943</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -57661,7 +57661,7 @@
         <v>44235</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -57718,7 +57718,7 @@
         <v>45300</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -57775,7 +57775,7 @@
         <v>44628.925625</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -57832,7 +57832,7 @@
         <v>45042</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -57894,7 +57894,7 @@
         <v>45222.9678125</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -57956,7 +57956,7 @@
         <v>44235</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -58013,7 +58013,7 @@
         <v>44923</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -58075,7 +58075,7 @@
         <v>45205</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -58137,7 +58137,7 @@
         <v>45419</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -58194,7 +58194,7 @@
         <v>45617</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -58256,7 +58256,7 @@
         <v>45524.35605324074</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -58318,7 +58318,7 @@
         <v>44564.80189814815</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -58375,7 +58375,7 @@
         <v>44435</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -58432,7 +58432,7 @@
         <v>44977.98401620371</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -58494,7 +58494,7 @@
         <v>44977</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -58556,7 +58556,7 @@
         <v>44857</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -58613,7 +58613,7 @@
         <v>45349</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -58670,7 +58670,7 @@
         <v>44615</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>44985</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -58784,7 +58784,7 @@
         <v>44735</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>44488</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -58903,7 +58903,7 @@
         <v>45453.95314814815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -58965,7 +58965,7 @@
         <v>45453.95326388889</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -59027,7 +59027,7 @@
         <v>45730.37549768519</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -59089,7 +59089,7 @@
         <v>45730.37681712963</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -59151,7 +59151,7 @@
         <v>45769</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -59213,7 +59213,7 @@
         <v>45524.34668981482</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         <v>45238</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -59337,7 +59337,7 @@
         <v>45575.49100694444</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -59399,7 +59399,7 @@
         <v>45520.58966435185</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -59461,7 +59461,7 @@
         <v>44307</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -59518,7 +59518,7 @@
         <v>44307</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -59575,7 +59575,7 @@
         <v>45254.96524305556</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -59637,7 +59637,7 @@
         <v>45743</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -59694,7 +59694,7 @@
         <v>44903</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -59751,7 +59751,7 @@
         <v>45775</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -59813,7 +59813,7 @@
         <v>45748.62240740741</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -59870,7 +59870,7 @@
         <v>45595</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -59927,7 +59927,7 @@
         <v>45595.4618287037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -59984,7 +59984,7 @@
         <v>45573</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -60046,7 +60046,7 @@
         <v>44859</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -60103,7 +60103,7 @@
         <v>45316.9474537037</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         <v>45390.95230324074</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -60227,7 +60227,7 @@
         <v>45730</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -60289,7 +60289,7 @@
         <v>44640</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -60346,7 +60346,7 @@
         <v>45278.94263888889</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -60408,7 +60408,7 @@
         <v>45147.95452546296</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -60470,7 +60470,7 @@
         <v>45534.64422453703</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -60532,7 +60532,7 @@
         <v>45534.64508101852</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -60594,7 +60594,7 @@
         <v>44235</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -60651,7 +60651,7 @@
         <v>45709</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -60708,7 +60708,7 @@
         <v>45541.38586805556</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -60770,7 +60770,7 @@
         <v>45362.96927083333</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45526.46234953704</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45232</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         <v>45377.94945601852</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -61008,7 +61008,7 @@
         <v>45635.34425925926</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -61070,7 +61070,7 @@
         <v>44972</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -61132,7 +61132,7 @@
         <v>45516.9525462963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -61194,7 +61194,7 @@
         <v>45660.40270833333</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -61251,7 +61251,7 @@
         <v>45660.41033564815</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -61308,7 +61308,7 @@
         <v>44888</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -61365,7 +61365,7 @@
         <v>45048</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -61422,7 +61422,7 @@
         <v>45754.49045138889</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -61484,7 +61484,7 @@
         <v>44747</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -61546,7 +61546,7 @@
         <v>45733</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -61608,7 +61608,7 @@
         <v>45516.95302083333</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -61670,7 +61670,7 @@
         <v>45516.95311342592</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -61732,7 +61732,7 @@
         <v>45526.56435185186</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -61789,7 +61789,7 @@
         <v>45762</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -61851,7 +61851,7 @@
         <v>45147.9540625</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -61913,7 +61913,7 @@
         <v>44963.92259259259</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -61970,7 +61970,7 @@
         <v>45399</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -62032,7 +62032,7 @@
         <v>45099</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -62094,7 +62094,7 @@
         <v>45154.92628472222</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -62151,7 +62151,7 @@
         <v>45158.31186342592</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -62208,7 +62208,7 @@
         <v>45649.56392361111</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -62265,7 +62265,7 @@
         <v>44693.32515046297</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -62322,7 +62322,7 @@
         <v>45377.94954861111</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -62384,7 +62384,7 @@
         <v>45265.95677083333</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -62446,7 +62446,7 @@
         <v>44909</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -62503,7 +62503,7 @@
         <v>45378</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -62560,7 +62560,7 @@
         <v>45442.96064814815</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -62622,7 +62622,7 @@
         <v>45777.59427083333</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -62684,7 +62684,7 @@
         <v>45777.53157407408</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -62746,7 +62746,7 @@
         <v>45492.96108796296</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -62808,7 +62808,7 @@
         <v>45779</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -62870,7 +62870,7 @@
         <v>44949</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -62927,7 +62927,7 @@
         <v>45779</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -62989,7 +62989,7 @@
         <v>45782</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -63051,7 +63051,7 @@
         <v>45782.55241898148</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -63113,7 +63113,7 @@
         <v>45783</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -63175,7 +63175,7 @@
         <v>45783.46917824074</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -63237,7 +63237,7 @@
         <v>45784.59418981482</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -63299,7 +63299,7 @@
         <v>45216</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -63356,7 +63356,7 @@
         <v>45785.3443287037</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -63418,7 +63418,7 @@
         <v>45784.63592592593</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -63480,7 +63480,7 @@
         <v>45140</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -63537,7 +63537,7 @@
         <v>45784</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -63599,7 +63599,7 @@
         <v>45784</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -63656,7 +63656,7 @@
         <v>45791.57324074074</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -63718,7 +63718,7 @@
         <v>45433</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -63775,7 +63775,7 @@
         <v>45586</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         <v>45793.59461805555</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -63899,7 +63899,7 @@
         <v>45793</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -63961,7 +63961,7 @@
         <v>45587</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -64023,7 +64023,7 @@
         <v>45793</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -64085,7 +64085,7 @@
         <v>45659</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -64147,7 +64147,7 @@
         <v>45800</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -64209,7 +64209,7 @@
         <v>45589</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -64271,7 +64271,7 @@
         <v>45548.46918981482</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -64333,7 +64333,7 @@
         <v>45757</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -64395,7 +64395,7 @@
         <v>45792.34643518519</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -64457,7 +64457,7 @@
         <v>45792.34540509259</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -64519,7 +64519,7 @@
         <v>45792</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -64581,7 +64581,7 @@
         <v>45792</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -64643,7 +64643,7 @@
         <v>45589</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -64705,7 +64705,7 @@
         <v>45587</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -64767,7 +64767,7 @@
         <v>44623</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -64829,7 +64829,7 @@
         <v>45797</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -64886,7 +64886,7 @@
         <v>45518</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -64948,7 +64948,7 @@
         <v>45147</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -575,7 +575,7 @@
         <v>44753</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>44350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44972</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44412</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>45636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44972</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45989</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45947.46935185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45636</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44494</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>45154</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44881</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44266</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45989</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44361</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45561</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>45583</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44972</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44972</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45201</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>44522</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45716</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45478</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>45989</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>45054</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>44474</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45764</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45636</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44945</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45915</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>45051</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45887</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45636</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45770</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45205</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44657</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45349</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44361</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45463</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>45636</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45238</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44964</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45399</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45636</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>45841.3452662037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45149</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45490</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45478</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>45497</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45463</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45573</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>45208</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44664</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45512</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45589</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45764</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>45205</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>45629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>45545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>45552</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45575</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45799.65734953704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>45709</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45989</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44806</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45665</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45461</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45558</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>46009</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45113</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44806</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>45545</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45478</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>45188.94413194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44648</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44732</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45839.46946759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>45561</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45929.594375</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45625</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45961.42766203704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45618</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>45560</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>46062.60943287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>45545</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44972</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45751</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44266</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45643</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>45461</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45821</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45834.47067129629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44309</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>45936</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45874</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45618</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44401</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44529</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45582</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45278</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>46048</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45560</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45903</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45541.38572916666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>45777.46910879629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44532</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45526.62043981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45105</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45821</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44522</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45240</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45936</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>45887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45636</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>45736</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>45824</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>44994</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>45523.38783564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44560</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>46056.44005787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45565</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45545</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45526</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45254</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45462</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>45756</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>45573</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44361</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45586</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45804</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44812</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44361</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44419.94226851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44619.87392361111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44628</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44619.86621527778</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>44859</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44867.95054398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44533</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44628.92569444444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>44844</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44756.94431712963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44756.94440972222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44307</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44686</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44852.95126157408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44619</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44307</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>44837.66417824074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44531</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44532</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44817</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44503</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>44253</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>44690</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44434</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44858.95158564814</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44389.5819675926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44743</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44743.94269675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44889.94913194444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44419.94237268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44419.94289351852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44419.94302083334</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>44756</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44433</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44619.88071759259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44616.93883101852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44755.62866898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44532</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44743</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44743</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44852.95145833334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44743.620625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44462</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44708</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44369.91984953704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44412</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44532</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44805</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>44879</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44377</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44452</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44341</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44617.9343287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44545.9203587963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>44545</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>44637</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44495.94003472223</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44452</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44545.92033564814</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44357</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44341</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44837</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44743</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44442.94226851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44972</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45471</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44459.71978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>45481.95178240741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>45555.51084490741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>45560</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44545.92059027778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45617.49107638889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>44914</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45660.419375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45470.9693287037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>44939</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45643</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44957</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>45443</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>45048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>45597.5109837963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45518.97256944444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44657</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>45162.94335648148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>45107</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45749</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>45603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45254</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>45541.63569444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45541.63581018519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45190</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45630</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45000</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44371</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>45712</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>45237.97364583334</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>45238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44627</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44901</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45478</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>45567.37387731481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>44923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23852,7 +23852,7 @@
         <v>44942</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>45571</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45709</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45388</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45693.53200231482</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45502</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>45571</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45194</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44522</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44515</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44378</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44330</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45534.63586805556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>45166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>45733</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         <v>45202.9413425926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>45147.95444444445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>45114.94138888889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44748</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45237.97375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45512.95870370371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45545.49028935185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45555.57373842593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45623</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45531.4075</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45239</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45546.63689814815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45573</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>45730.37633101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>45730</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45401.94358796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44971</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45784</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45709</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45469</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45232</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45884.55297453704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>45526.61646990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>45526.61664351852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45656.51119212963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>45572.51092592593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45884.42813657408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>44568</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45338</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45884.49061342593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>45820.6360300926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>45440.95310185185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45195</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45238</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45821</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45595.41166666667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45597</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44852.94685185186</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45824.69865740741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>44397</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>45889.46940972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45239</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>45823</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45888.59435185185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45824.34478009259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45889.59453703704</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>45824.69888888889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>45890.49021990741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>45890.46978009259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>45659</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45890.44863425926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45890.44875</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>45894</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45826.45104166667</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>45826.45702546297</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>45707.46905092592</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>45894.65951388889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45831.38579861111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45372</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45894.57322916666</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45308</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45250.96092592592</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44515</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44515</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45579</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>45672.45302083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>45833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>45833</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45834</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45898</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>44847</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45463</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>45730</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>45730</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45240</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45834</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45206.95747685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45834.47035879629</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45931</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44911.51318287037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>45748.63356481482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>45904</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>45265.95667824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45839</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45904</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45636.36488425926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45730</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45730.37515046296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
         <v>45730</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45197.94158564815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30856,7 +30856,7 @@
         <v>45831.58256944444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>45586.38592592593</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>45799</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45841</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45656</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>45841.65045138889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>45789</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31275,7 +31275,7 @@
         <v>45403</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45841.34461805555</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>45840</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>44847</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>45463.94247685185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
         <v>45161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45845</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45590.37554398148</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45880</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44328</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>45845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>45280</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>45614</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         <v>45915</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -32103,7 +32103,7 @@
         <v>45915</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -32160,7 +32160,7 @@
         <v>45618</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         <v>45495.9509837963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>45847.57950231482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>45847.58480324074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>45558</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32460,7 +32460,7 @@
         <v>45847.53211805555</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32522,7 +32522,7 @@
         <v>45636</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32579,7 +32579,7 @@
         <v>45226.96258101852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>44452</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>44452</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>45917</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>45343</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32869,7 +32869,7 @@
         <v>45853.59447916667</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45853.59453703704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32993,7 +32993,7 @@
         <v>45769</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>45854</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -33117,7 +33117,7 @@
         <v>45854.3653587963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>45854.36543981481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>45918</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44981.72646990741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45170.95747685185</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44316.41677083333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>45735</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33541,7 +33541,7 @@
         <v>45923.48195601852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>45205</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45147.95390046296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33727,7 +33727,7 @@
         <v>45216.95800925926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45922.46759259259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45483.96994212963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>45862</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45862.44034722223</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>44543</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45919</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>44743.94145833333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>44963.93989583333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45260.9258912037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         <v>44855</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45117</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45248</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45770</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45929.59428240741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34617,7 +34617,7 @@
         <v>45929</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45929.50732638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34736,7 +34736,7 @@
         <v>45331</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34793,7 +34793,7 @@
         <v>45912</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34850,7 +34850,7 @@
         <v>45873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34907,7 +34907,7 @@
         <v>45251.92947916667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34964,7 +34964,7 @@
         <v>45870</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         <v>45972</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         <v>45874.63747685185</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45972</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45874.71912037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45874.59450231482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>44540</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>45876</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>45786</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45877.34436342592</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45877.34444444445</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>45876</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>45877.36513888889</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>45786</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>45443</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35864,7 +35864,7 @@
         <v>45125</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>45161</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>45936.55251157407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>45408</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>45576.34444444445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45979.25059027778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45883.6364699074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45883.67839120371</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>44322</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         <v>45937</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>45883.63611111111</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45883.57451388889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36573,7 +36573,7 @@
         <v>45883.53290509259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         <v>45883</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45883.59429398148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>45757</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45206.95854166667</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>45883.36547453704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45883.36553240741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45883.53247685185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -37054,7 +37054,7 @@
         <v>45937.36527777778</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>45883.63638888889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>45883.53228009259</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>45883.53263888889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45882.93524305556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>45882.95137731481</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>45635</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>45541</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45939.65079861111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>45700</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>45937.4828125</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>45943.57296296296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>45636</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>44488</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37887,7 +37887,7 @@
         <v>45297.83246527778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37944,7 +37944,7 @@
         <v>45740.61644675926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -38001,7 +38001,7 @@
         <v>45771.60482638889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>45625</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>45636</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44972</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -38244,7 +38244,7 @@
         <v>45636</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45884.42768518518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>45833</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45944.42415509259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>45944.3862037037</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>45884.46951388889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45574</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>45946.67149305555</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45265.95685185185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         <v>45639</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45947.42334490741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38911,7 +38911,7 @@
         <v>45775</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>45546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>45238</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -39087,7 +39087,7 @@
         <v>45642.61490740741</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>45951.55436342592</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45951.46043981481</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45951.47362268518</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45951.55298611111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>45089</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>45492.95777777778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45399</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45399</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45952.61252314815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45953.68225694444</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>44977</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39781,7 +39781,7 @@
         <v>45995.71637731481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39838,7 +39838,7 @@
         <v>45625</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45954.34572916666</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45954.59429398148</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>45957.44878472222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>45415</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>45957.42777777778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45770</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>45229</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>44515</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>45709</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>45957.82777777778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>45538.63577546296</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40552,7 +40552,7 @@
         <v>45265</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40614,7 +40614,7 @@
         <v>45450.94366898148</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40676,7 +40676,7 @@
         <v>45643</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>45558</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>44993.94818287037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>45142.95103009259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40924,7 +40924,7 @@
         <v>45435.94567129629</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45508</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>45957</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45957</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>45957</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -41214,7 +41214,7 @@
         <v>45957</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -41271,7 +41271,7 @@
         <v>45957</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45957</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41385,7 +41385,7 @@
         <v>45957</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>45216.95556712963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
         <v>45957</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         <v>45957</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>45957</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>45515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>45957</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
         <v>45989</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45989</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41913,7 +41913,7 @@
         <v>45989</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>44972</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -42037,7 +42037,7 @@
         <v>45966</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45989</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -42151,7 +42151,7 @@
         <v>45989</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -42213,7 +42213,7 @@
         <v>45989</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45161.94315972222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -42337,7 +42337,7 @@
         <v>45967.38887731481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>45967</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42451,7 +42451,7 @@
         <v>45968.34498842592</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         <v>45636</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>45545</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45715.51086805556</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>45968.34462962963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44658</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>45971.51086805556</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>45952</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>45636.5433449074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45972.34466435185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
         <v>44847</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44847</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>45492</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>45762.59491898148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>44341</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45754.49039351852</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45625</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>45000</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43537,7 +43537,7 @@
         <v>44917</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>45979.59443287037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         <v>45478</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43713,7 +43713,7 @@
         <v>45980.71736111111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -43770,7 +43770,7 @@
         <v>44419.94174768519</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -43832,7 +43832,7 @@
         <v>45981</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43889,7 +43889,7 @@
         <v>45981.57957175926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43946,7 +43946,7 @@
         <v>45225.96753472222</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>45985.58819444444</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -44070,7 +44070,7 @@
         <v>45985</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -44127,7 +44127,7 @@
         <v>45982.55253472222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45985</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>44328</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45595</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>44987</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44422,7 +44422,7 @@
         <v>45653.5150462963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>44911.94</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45453.95199074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>45989</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>45989</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44722,7 +44722,7 @@
         <v>45540</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45692.64475694444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -44841,7 +44841,7 @@
         <v>45195.94755787037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>45993.65892361111</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>45505.9299537037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -45017,7 +45017,7 @@
         <v>44972</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45478.94722222222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45993.67761574074</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45993.65197916667</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45993.66409722222</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45586</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45992.39248842592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>45993</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>44943</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45232</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45994</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>44657</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45773,7 +45773,7 @@
         <v>45748</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -45830,7 +45830,7 @@
         <v>46036.53188657408</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45436.94604166667</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>46034</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -46011,7 +46011,7 @@
         <v>45089</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
         <v>45442</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45216.95604166666</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -46192,7 +46192,7 @@
         <v>45520.61695601852</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -46254,7 +46254,7 @@
         <v>45996.63483796296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45999.7365162037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45999.74017361111</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45999.74972222222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>46038.59427083333</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>45478.94733796296</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46606,7 +46606,7 @@
         <v>45996.59995370371</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46663,7 +46663,7 @@
         <v>45996.60284722222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>45999.72875</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -46777,7 +46777,7 @@
         <v>46038.43719907408</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>45435.94553240741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46896,7 +46896,7 @@
         <v>45999.74579861111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>45399</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>46001.60319444445</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>45622</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47129,7 +47129,7 @@
         <v>45999.76028935185</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>45492.9580324074</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45232</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45188</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>46001.54938657407</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45999.77453703704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45428.97231481481</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47538,7 +47538,7 @@
         <v>45574</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47595,7 +47595,7 @@
         <v>46001.68586805555</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47657,7 +47657,7 @@
         <v>45457.96708333334</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47719,7 +47719,7 @@
         <v>46003.33113425926</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -47776,7 +47776,7 @@
         <v>45582</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -47838,7 +47838,7 @@
         <v>45408</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -47895,7 +47895,7 @@
         <v>45720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -47952,7 +47952,7 @@
         <v>45453</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -48014,7 +48014,7 @@
         <v>45443</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48076,7 +48076,7 @@
         <v>45622</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -48133,7 +48133,7 @@
         <v>46045.49011574074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48195,7 +48195,7 @@
         <v>44881</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -48252,7 +48252,7 @@
         <v>45737</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>46048.43972222223</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45552.5315162037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48433,7 +48433,7 @@
         <v>46049.42791666667</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48495,7 +48495,7 @@
         <v>45756</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48557,7 +48557,7 @@
         <v>46006</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48614,7 +48614,7 @@
         <v>45207.93900462963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48676,7 +48676,7 @@
         <v>45225.9678587963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48738,7 +48738,7 @@
         <v>46006.7149074074</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48795,7 +48795,7 @@
         <v>46048.5734375</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -48852,7 +48852,7 @@
         <v>46006.69791666666</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48909,7 +48909,7 @@
         <v>46009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -48966,7 +48966,7 @@
         <v>45148.96195601852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -49028,7 +49028,7 @@
         <v>45205</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -49090,7 +49090,7 @@
         <v>44470.31884259259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -49152,7 +49152,7 @@
         <v>45236</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -49214,7 +49214,7 @@
         <v>44903</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -49271,7 +49271,7 @@
         <v>44253</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -49328,7 +49328,7 @@
         <v>45222</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -49390,7 +49390,7 @@
         <v>45429</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -49452,7 +49452,7 @@
         <v>46003</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         <v>46055.48990740741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -49566,7 +49566,7 @@
         <v>46055.40685185185</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -49623,7 +49623,7 @@
         <v>45622</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>45617</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -49742,7 +49742,7 @@
         <v>46055.40693287037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -49799,7 +49799,7 @@
         <v>44637</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -49856,7 +49856,7 @@
         <v>46048</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -49913,7 +49913,7 @@
         <v>45475.94844907407</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -49975,7 +49975,7 @@
         <v>46055.40695601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>46056.45396990741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45770</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         <v>45526.71134259259</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -50208,7 +50208,7 @@
         <v>45246.96861111111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>45149.95256944445</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -50332,7 +50332,7 @@
         <v>45186.51590277778</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -50389,7 +50389,7 @@
         <v>45152</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -50446,7 +50446,7 @@
         <v>45148.96185185185</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45511.95214120371</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45775.61550925926</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>46058.59981481481</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>45526.61637731481</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45509</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45509</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -50870,7 +50870,7 @@
         <v>46013</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -50927,7 +50927,7 @@
         <v>45568.34429398148</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -50989,7 +50989,7 @@
         <v>44532</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>44995</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -51108,7 +51108,7 @@
         <v>45239</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         <v>44881</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -51222,7 +51222,7 @@
         <v>45216.9580787037</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -51284,7 +51284,7 @@
         <v>46064.61513888889</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>45487.9563425926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -51408,7 +51408,7 @@
         <v>45756</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -51465,7 +51465,7 @@
         <v>45756</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45756</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>44972</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -51641,7 +51641,7 @@
         <v>44609</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45660.42734953704</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>45660.53215277778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -51827,7 +51827,7 @@
         <v>46066.35452546296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -51889,7 +51889,7 @@
         <v>45149.95310185185</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -51951,7 +51951,7 @@
         <v>45618.43804398148</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45659</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45659</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -52127,7 +52127,7 @@
         <v>45734</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -52184,7 +52184,7 @@
         <v>45159</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -52241,7 +52241,7 @@
         <v>45190</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45297</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>46049</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45636</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -52479,7 +52479,7 @@
         <v>44972</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -52541,7 +52541,7 @@
         <v>45117</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44628</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>45552</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44361</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>45485</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>45518.97211805556</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -52903,7 +52903,7 @@
         <v>45140</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -52960,7 +52960,7 @@
         <v>46070</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -53017,7 +53017,7 @@
         <v>45092.94042824074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -53079,7 +53079,7 @@
         <v>45777</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>44698</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45545.53619212963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -53255,7 +53255,7 @@
         <v>45238</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -53317,7 +53317,7 @@
         <v>45238</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -53379,7 +53379,7 @@
         <v>45376</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -53436,7 +53436,7 @@
         <v>45400</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -53493,7 +53493,7 @@
         <v>45206.95761574074</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -53555,7 +53555,7 @@
         <v>45225</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -53617,7 +53617,7 @@
         <v>46073.40673611111</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -53679,7 +53679,7 @@
         <v>46072.58782407407</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -53736,7 +53736,7 @@
         <v>44522</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -53798,7 +53798,7 @@
         <v>45084</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -53860,7 +53860,7 @@
         <v>45154</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -53922,7 +53922,7 @@
         <v>45492.95818287037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -53984,7 +53984,7 @@
         <v>45492.95939814814</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -54046,7 +54046,7 @@
         <v>45492.95981481481</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45469</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>44389</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -54227,7 +54227,7 @@
         <v>45754.49008101852</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>45617</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45090</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>45541.63592592593</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>45152</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>45236</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44985</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -54651,7 +54651,7 @@
         <v>44939</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -54713,7 +54713,7 @@
         <v>45574.40974537037</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -54770,7 +54770,7 @@
         <v>45450.9444212963</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>45278</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>45748</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>45565.4912962963</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -55008,7 +55008,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -55070,7 +55070,7 @@
         <v>45194</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -55127,7 +55127,7 @@
         <v>45295</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -55189,7 +55189,7 @@
         <v>44972</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -55251,7 +55251,7 @@
         <v>45545.40717592592</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>45545</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -55375,7 +55375,7 @@
         <v>45545</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -55437,7 +55437,7 @@
         <v>44826</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -55494,7 +55494,7 @@
         <v>45000</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -55551,7 +55551,7 @@
         <v>45435.94324074074</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -55613,7 +55613,7 @@
         <v>44943</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -55670,7 +55670,7 @@
         <v>45300</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -55727,7 +55727,7 @@
         <v>44628.925625</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -55784,7 +55784,7 @@
         <v>45042</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -55846,7 +55846,7 @@
         <v>45222.9678125</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -55908,7 +55908,7 @@
         <v>44923</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -55970,7 +55970,7 @@
         <v>45205</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -56032,7 +56032,7 @@
         <v>45419</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -56089,7 +56089,7 @@
         <v>45617</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -56151,7 +56151,7 @@
         <v>45524.35605324074</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -56213,7 +56213,7 @@
         <v>44564.80189814815</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -56270,7 +56270,7 @@
         <v>44435</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -56327,7 +56327,7 @@
         <v>44977.98401620371</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>44977</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -56451,7 +56451,7 @@
         <v>44857</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -56508,7 +56508,7 @@
         <v>45349</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         <v>44615</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -56622,7 +56622,7 @@
         <v>44985</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -56679,7 +56679,7 @@
         <v>44735</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -56741,7 +56741,7 @@
         <v>44488</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45453.95314814815</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>45453.95326388889</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -56922,7 +56922,7 @@
         <v>45730.37549768519</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -56984,7 +56984,7 @@
         <v>45730.37681712963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -57046,7 +57046,7 @@
         <v>45769</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -57108,7 +57108,7 @@
         <v>45524.34668981482</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -57170,7 +57170,7 @@
         <v>45238</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45575.49100694444</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45520.58966435185</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -57356,7 +57356,7 @@
         <v>44307</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -57413,7 +57413,7 @@
         <v>44307</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45254.96524305556</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -57532,7 +57532,7 @@
         <v>45743</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>44903</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45775</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -57708,7 +57708,7 @@
         <v>45748.62240740741</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45595</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45595.4618287037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45573</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -57941,7 +57941,7 @@
         <v>44859</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45316.9474537037</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45390.95230324074</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -58122,7 +58122,7 @@
         <v>45730</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -58184,7 +58184,7 @@
         <v>44640</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -58241,7 +58241,7 @@
         <v>45278.94263888889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -58303,7 +58303,7 @@
         <v>45147.95452546296</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -58365,7 +58365,7 @@
         <v>45534.64422453703</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -58427,7 +58427,7 @@
         <v>45534.64508101852</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -58489,7 +58489,7 @@
         <v>45709</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         <v>45541.38586805556</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45362.96927083333</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>45526.46234953704</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>45232</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -58784,7 +58784,7 @@
         <v>45377.94945601852</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>45635.34425925926</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -58908,7 +58908,7 @@
         <v>44972</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -58970,7 +58970,7 @@
         <v>45516.9525462963</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -59032,7 +59032,7 @@
         <v>45660.40270833333</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -59089,7 +59089,7 @@
         <v>45660.41033564815</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -59146,7 +59146,7 @@
         <v>44888</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         <v>45048</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -59260,7 +59260,7 @@
         <v>45754.49045138889</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -59322,7 +59322,7 @@
         <v>44747</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -59384,7 +59384,7 @@
         <v>45733</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -59446,7 +59446,7 @@
         <v>45516.95302083333</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -59508,7 +59508,7 @@
         <v>45516.95311342592</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -59570,7 +59570,7 @@
         <v>45526.56435185186</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -59627,7 +59627,7 @@
         <v>45762</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -59689,7 +59689,7 @@
         <v>45147.9540625</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -59751,7 +59751,7 @@
         <v>44963.92259259259</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -59808,7 +59808,7 @@
         <v>45399</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -59870,7 +59870,7 @@
         <v>45099</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -59932,7 +59932,7 @@
         <v>45154.92628472222</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -59989,7 +59989,7 @@
         <v>45158.31186342592</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -60046,7 +60046,7 @@
         <v>45649.56392361111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -60103,7 +60103,7 @@
         <v>44693.32515046297</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -60160,7 +60160,7 @@
         <v>45377.94954861111</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -60222,7 +60222,7 @@
         <v>45265.95677083333</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -60284,7 +60284,7 @@
         <v>44909</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -60341,7 +60341,7 @@
         <v>45378</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -60398,7 +60398,7 @@
         <v>45442.96064814815</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45777.59427083333</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45777.53157407408</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45492.96108796296</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45779</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -60708,7 +60708,7 @@
         <v>44949</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -60765,7 +60765,7 @@
         <v>45779</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45782</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45782.55241898148</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -60951,7 +60951,7 @@
         <v>45783</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -61013,7 +61013,7 @@
         <v>45783.46917824074</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         <v>45784.59418981482</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -61137,7 +61137,7 @@
         <v>45216</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -61194,7 +61194,7 @@
         <v>45785.3443287037</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -61256,7 +61256,7 @@
         <v>45784.63592592593</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -61318,7 +61318,7 @@
         <v>45140</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -61375,7 +61375,7 @@
         <v>45784</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -61437,7 +61437,7 @@
         <v>45784</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -61494,7 +61494,7 @@
         <v>45791.57324074074</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -61556,7 +61556,7 @@
         <v>45433</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -61613,7 +61613,7 @@
         <v>45586</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -61675,7 +61675,7 @@
         <v>45793.59461805555</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -61737,7 +61737,7 @@
         <v>45793</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -61799,7 +61799,7 @@
         <v>45587</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45793</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -61923,7 +61923,7 @@
         <v>45659</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -61985,7 +61985,7 @@
         <v>45800</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -62047,7 +62047,7 @@
         <v>45589</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         <v>45548.46918981482</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -62171,7 +62171,7 @@
         <v>45757</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -62233,7 +62233,7 @@
         <v>45792.34643518519</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -62295,7 +62295,7 @@
         <v>45792.34540509259</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -62357,7 +62357,7 @@
         <v>45792</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -62419,7 +62419,7 @@
         <v>45792</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -62481,7 +62481,7 @@
         <v>45589</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -62543,7 +62543,7 @@
         <v>45587</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -62605,7 +62605,7 @@
         <v>44623</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -62667,7 +62667,7 @@
         <v>45797</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -62724,7 +62724,7 @@
         <v>45518</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         <v>45147</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -62848,7 +62848,7 @@
         <v>45799.69844907407</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -62910,7 +62910,7 @@
         <v>45149.95266203704</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -62972,7 +62972,7 @@
         <v>45799.49028935185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -63034,7 +63034,7 @@
         <v>45799.49025462963</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -63096,7 +63096,7 @@
         <v>45415.94033564815</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -63158,7 +63158,7 @@
         <v>45803.38644675926</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -63220,7 +63220,7 @@
         <v>45800.44892361111</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -63282,7 +63282,7 @@
         <v>45800.44840277778</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -63344,7 +63344,7 @@
         <v>44847</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -63401,7 +63401,7 @@
         <v>45800.57380787037</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -63463,7 +63463,7 @@
         <v>45800</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -63525,7 +63525,7 @@
         <v>45804.3449537037</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -63587,7 +63587,7 @@
         <v>45096</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -63644,7 +63644,7 @@
         <v>45636.55063657407</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -63706,7 +63706,7 @@
         <v>45804.59461805555</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -63768,7 +63768,7 @@
         <v>45440.92866898148</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -63825,7 +63825,7 @@
         <v>45805</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -63887,7 +63887,7 @@
         <v>45583</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -63949,7 +63949,7 @@
         <v>45810.53185185185</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -64011,7 +64011,7 @@
         <v>45810.59417824074</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -64073,7 +64073,7 @@
         <v>45810</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -64135,7 +64135,7 @@
         <v>45810.53188657408</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         <v>44978</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -64254,7 +64254,7 @@
         <v>45813.52791666667</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -64316,7 +64316,7 @@
         <v>45817.51078703703</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -64378,7 +64378,7 @@
         <v>45817.53157407408</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -64440,7 +64440,7 @@
         <v>45817.61506944444</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -64502,7 +64502,7 @@
         <v>45817</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -64564,7 +64564,7 @@
         <v>45817.67755787037</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -64626,7 +64626,7 @@
         <v>45817.61545138889</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -64688,7 +64688,7 @@
         <v>45817.65658564815</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -64750,7 +64750,7 @@
         <v>44686</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>

--- a/Översikt VILHELMINA.xlsx
+++ b/Översikt VILHELMINA.xlsx
@@ -575,7 +575,7 @@
         <v>44753</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>44350</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44972</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45989</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44350</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>44494</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>44412</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>45636</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>44644</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44972</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45989</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>45947.46935185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>45636</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44494</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>45625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45625</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>45154</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44881</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44266</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>45989</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44361</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45561</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>45583</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44972</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44972</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45201</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         <v>44522</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45734</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45716</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45113</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45478</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         <v>45989</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>45054</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>44474</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45764</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45636</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44945</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45915</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>45051</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>45887</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45636</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45770</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45205</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44657</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>45349</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44361</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>44964</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45463</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>45636</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45238</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44964</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45399</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>45636</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>45509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44735</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>45625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>45841.3452662037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>45149</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45490</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45478</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>45497</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>45463</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>45573</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>45208</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44664</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>45531</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>45512</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45589</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>45764</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>45205</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9055,7 +9055,7 @@
         <v>45629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>45545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>45552</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45575</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45799.65734953704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>45709</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45989</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44806</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45665</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>45461</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45558</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>46009</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45113</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>44806</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>45545</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45478</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>45188.94413194444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44648</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>44732</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44515</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45839.46946759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>45561</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>45929.594375</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45625</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>45961.42766203704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>45618</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>45560</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>46062.60943287037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>45545</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44972</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>45751</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44266</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         <v>45643</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>45461</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45821</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45098</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>45834.47067129629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         <v>45112</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44309</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>45936</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45874</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>45618</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44401</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>44529</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45582</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45278</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>46048</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45560</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>45903</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45541.38572916666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>45777.46910879629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44532</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>45526.62043981482</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45105</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45821</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44522</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>45240</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45936</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>45887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         <v>45636</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>45736</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>45824</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>44994</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>44494</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         <v>45523.38783564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44560</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>46056.44005787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45565</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         <v>45545</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45462</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45526</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45254</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45462</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>45756</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>45573</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44515</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>44361</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45586</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45804</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>44812</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>44361</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44419.94226851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44619.87392361111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44628</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44619.86621527778</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>44810</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>44859</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44867.95054398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>44533</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>44713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>44628.92569444444</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44613</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>44844</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         <v>44756.94431712963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44756.94440972222</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44307</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44686</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44852.95126157408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>44619</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44307</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>44837.66417824074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>44531</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44532</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44817</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44503</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44371</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>44253</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>44690</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>44371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>44434</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44858.95158564814</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44389.5819675926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44743</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44743.94269675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44889.94913194444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44419.94237268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44419.94289351852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44419.94302083334</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>44756</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44433</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>44442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>44619.88071759259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>44616.93883101852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -19595,7 +19595,7 @@
         <v>44482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44755.62866898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>44532</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>44743</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44743</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -19895,7 +19895,7 @@
         <v>44852.95145833334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>44743.620625</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44462</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44708</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44369.91984953704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44412</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44532</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44805</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>44879</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>44799</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -20562,7 +20562,7 @@
         <v>44377</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>44452</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>44341</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>44617.9343287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>44545.9203587963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>44545</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>44637</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>44495.94003472223</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -21033,7 +21033,7 @@
         <v>44452</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>44545.92033564814</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>44357</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44341</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44837</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44743</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44442.94226851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44972</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45471</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>44459.71978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>45481.95178240741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>45555.51084490741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>45560</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>44545.92059027778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45617.49107638889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>44914</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45660.419375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>45470.9693287037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>44939</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -22181,7 +22181,7 @@
         <v>45643</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44957</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>45140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -22357,7 +22357,7 @@
         <v>45443</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>45048</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>45597.5109837963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45518.97256944444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44657</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>45162.94335648148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>45107</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45749</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>45603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>45254</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -22962,7 +22962,7 @@
         <v>45541.63569444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45541.63581018519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45190</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45630</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45000</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44371</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -23319,7 +23319,7 @@
         <v>44889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -23376,7 +23376,7 @@
         <v>45712</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>45237.97364583334</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>45238</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44627</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44901</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45478</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>45567.37387731481</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>44923</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -23852,7 +23852,7 @@
         <v>44942</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>45571</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>45709</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>45388</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45693.53200231482</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45502</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>45571</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45194</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44522</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44515</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44378</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44330</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>45534.63586805556</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>45166</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>45733</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         <v>45202.9413425926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -24913,7 +24913,7 @@
         <v>45147.95444444445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>45114.94138888889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44748</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45237.97375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>45512.95870370371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>45545.49028935185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>45555.57373842593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45623</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>45531.4075</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>45239</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45546.63689814815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         <v>45573</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -25699,7 +25699,7 @@
         <v>45730.37633101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>45730</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>45401.94358796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44971</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45784</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45709</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45469</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>45232</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>45884.55297453704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -26294,7 +26294,7 @@
         <v>45526.61646990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>45526.61664351852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>45656.51119212963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>45572.51092592593</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45884.42813657408</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>44568</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -26656,7 +26656,7 @@
         <v>45338</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -26713,7 +26713,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>45884.49061342593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>45820.6360300926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>45440.95310185185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45195</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45238</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45821</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45595.41166666667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45597</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>44852.94685185186</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45824.69865740741</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>44397</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>45889.46940972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45239</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>45823</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45888.59435185185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45824.34478009259</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45889.59453703704</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>45824.69888888889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>45890.49021990741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>45890.46978009259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -28052,7 +28052,7 @@
         <v>45659</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45890.44863425926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45890.44875</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>45894</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45826.45104166667</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>45826.45702546297</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>45707.46905092592</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>45894.65951388889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45831.38579861111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -28590,7 +28590,7 @@
         <v>45372</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45894.57322916666</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>45308</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45250.96092592592</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44515</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44515</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45579</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44890</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>45672.45302083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>45833</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>45833</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>45834</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45898</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>44847</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45463</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>45730</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -29651,7 +29651,7 @@
         <v>45730</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
         <v>45240</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>45834</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45206.95747685185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45834.47035879629</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45902</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45791</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45931</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>44911.51318287037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -30246,7 +30246,7 @@
         <v>45748.63356481482</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -30303,7 +30303,7 @@
         <v>45904</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>45265.95667824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>45839</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45904</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45636.36488425926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45730</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45730.37515046296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
         <v>45730</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -30794,7 +30794,7 @@
         <v>45197.94158564815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -30856,7 +30856,7 @@
         <v>45831.58256944444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>45586.38592592593</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -30975,7 +30975,7 @@
         <v>45799</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -31032,7 +31032,7 @@
         <v>45841</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45656</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>45841.65045138889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>45789</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -31275,7 +31275,7 @@
         <v>45403</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45841.34461805555</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>45840</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>44847</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>45463.94247685185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
         <v>45161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45845</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45590.37554398148</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45880</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -31808,7 +31808,7 @@
         <v>44328</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>45845</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>45280</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>45614</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         <v>45915</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -32103,7 +32103,7 @@
         <v>45915</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -32160,7 +32160,7 @@
         <v>45618</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         <v>45495.9509837963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>45847.57950231482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>45847.58480324074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>45558</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -32460,7 +32460,7 @@
         <v>45847.53211805555</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -32522,7 +32522,7 @@
         <v>45636</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -32579,7 +32579,7 @@
         <v>45226.96258101852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>44452</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>44452</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>45917</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>45343</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -32869,7 +32869,7 @@
         <v>45853.59447916667</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45853.59453703704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -32993,7 +32993,7 @@
         <v>45769</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>45854</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -33117,7 +33117,7 @@
         <v>45854.3653587963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -33179,7 +33179,7 @@
         <v>45854.36543981481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>45918</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44981.72646990741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>45170.95747685185</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -33417,7 +33417,7 @@
         <v>44316.41677083333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -33479,7 +33479,7 @@
         <v>45735</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -33541,7 +33541,7 @@
         <v>45923.48195601852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>45205</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45147.95390046296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -33727,7 +33727,7 @@
         <v>45216.95800925926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -33789,7 +33789,7 @@
         <v>45922.46759259259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -33846,7 +33846,7 @@
         <v>45483.96994212963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -33908,7 +33908,7 @@
         <v>45862</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -33965,7 +33965,7 @@
         <v>45862.44034722223</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -34022,7 +34022,7 @@
         <v>44543</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -34079,7 +34079,7 @@
         <v>45919</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         <v>44743.94145833333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -34198,7 +34198,7 @@
         <v>44963.93989583333</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45260.9258912037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         <v>44855</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -34379,7 +34379,7 @@
         <v>45117</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45248</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45770</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -34555,7 +34555,7 @@
         <v>45929.59428240741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -34617,7 +34617,7 @@
         <v>45929</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45929.50732638889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -34736,7 +34736,7 @@
         <v>45331</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -34793,7 +34793,7 @@
         <v>45912</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -34850,7 +34850,7 @@
         <v>45873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -34907,7 +34907,7 @@
         <v>45251.92947916667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -34964,7 +34964,7 @@
         <v>45870</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         <v>45972</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         <v>45874.63747685185</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45972</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45874.71912037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45874.59450231482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>44540</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>45876</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>45786</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45877.34436342592</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45877.34444444445</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>45876</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>45877.36513888889</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>45786</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>45443</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -35864,7 +35864,7 @@
         <v>45125</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>45161</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>45936.55251157407</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         <v>45408</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>45576.34444444445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45979.25059027778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45883.6364699074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>45883.67839120371</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -36335,7 +36335,7 @@
         <v>44322</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -36392,7 +36392,7 @@
         <v>45937</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>45883.63611111111</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45883.57451388889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -36573,7 +36573,7 @@
         <v>45883.53290509259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         <v>45883</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -36697,7 +36697,7 @@
         <v>45883.59429398148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>45757</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45206.95854166667</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>45883.36547453704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>45883.36553240741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45883.53247685185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -37054,7 +37054,7 @@
         <v>45937.36527777778</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -37116,7 +37116,7 @@
         <v>45883.63638888889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -37173,7 +37173,7 @@
         <v>45883.53228009259</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>45883.53263888889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45882.93524305556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>45882.95137731481</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>45635</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>45541</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45939.65079861111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>45700</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>45937.4828125</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>45943.57296296296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>45636</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -37830,7 +37830,7 @@
         <v>44488</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -37887,7 +37887,7 @@
         <v>45297.83246527778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37944,7 +37944,7 @@
         <v>45740.61644675926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -38001,7 +38001,7 @@
         <v>45771.60482638889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -38058,7 +38058,7 @@
         <v>45625</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>45636</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44972</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -38244,7 +38244,7 @@
         <v>45636</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>45884.42768518518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -38368,7 +38368,7 @@
         <v>45833</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45944.42415509259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>45944.3862037037</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>45884.46951388889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45574</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>45946.67149305555</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>45265.95685185185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -38792,7 +38792,7 @@
         <v>45639</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45947.42334490741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -38911,7 +38911,7 @@
         <v>45775</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>45546</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>45238</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -39087,7 +39087,7 @@
         <v>45642.61490740741</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -39149,7 +39149,7 @@
         <v>45951.55436342592</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -39206,7 +39206,7 @@
         <v>45951.46043981481</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         <v>45951.47362268518</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -39320,7 +39320,7 @@
         <v>45951.55298611111</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -39377,7 +39377,7 @@
         <v>45089</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -39434,7 +39434,7 @@
         <v>45492.95777777778</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -39496,7 +39496,7 @@
         <v>45399</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
         <v>45399</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
         <v>45952.61252314815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -39667,7 +39667,7 @@
         <v>45953.68225694444</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
         <v>44977</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -39781,7 +39781,7 @@
         <v>45995.71637731481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -39838,7 +39838,7 @@
         <v>45625</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39900,7 +39900,7 @@
         <v>45954.34572916666</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39962,7 +39962,7 @@
         <v>45954.59429398148</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>45957.44878472222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>45415</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>45957.42777777778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45770</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>45229</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>44515</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>45709</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>45957.82777777778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>45538.63577546296</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40552,7 +40552,7 @@
         <v>45265</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -40614,7 +40614,7 @@
         <v>45450.94366898148</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -40676,7 +40676,7 @@
         <v>45643</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>45558</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>44993.94818287037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40862,7 +40862,7 @@
         <v>45142.95103009259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -40924,7 +40924,7 @@
         <v>45435.94567129629</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45508</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>45957</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45957</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>45957</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -41214,7 +41214,7 @@
         <v>45957</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -41271,7 +41271,7 @@
         <v>45957</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -41328,7 +41328,7 @@
         <v>45957</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41385,7 +41385,7 @@
         <v>45957</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -41442,7 +41442,7 @@
         <v>45216.95556712963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
         <v>45957</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         <v>45957</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>45957</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>45515</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>45957</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -41789,7 +41789,7 @@
         <v>45989</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45989</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -41913,7 +41913,7 @@
         <v>45989</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>44972</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -42037,7 +42037,7 @@
         <v>45966</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45989</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -42151,7 +42151,7 @@
         <v>45989</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -42213,7 +42213,7 @@
         <v>45989</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42275,7 +42275,7 @@
         <v>45161.94315972222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -42337,7 +42337,7 @@
         <v>45967.38887731481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -42394,7 +42394,7 @@
         <v>45967</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -42451,7 +42451,7 @@
         <v>45968.34498842592</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -42513,7 +42513,7 @@
         <v>45636</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -42575,7 +42575,7 @@
         <v>45545</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -42632,7 +42632,7 @@
         <v>45715.51086805556</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -42694,7 +42694,7 @@
         <v>45968.34462962963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>44658</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -42813,7 +42813,7 @@
         <v>45971.51086805556</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>45952</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>45636.5433449074</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -42999,7 +42999,7 @@
         <v>45972.34466435185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
         <v>44847</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44847</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43175,7 +43175,7 @@
         <v>45492</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>45762.59491898148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>44341</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>45754.49039351852</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45625</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -43480,7 +43480,7 @@
         <v>45000</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -43537,7 +43537,7 @@
         <v>44917</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -43594,7 +43594,7 @@
         <v>45979.59443287037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         <v>45478</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -43713,7 +43713,7 @@
         <v>45980.71736111111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -43770,7 +43770,7 @@
         <v>44419.94174768519</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -43832,7 +43832,7 @@
         <v>45981</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -43889,7 +43889,7 @@
         <v>45981.57957175926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43946,7 +43946,7 @@
         <v>45225.96753472222</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>45985.58819444444</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -44070,7 +44070,7 @@
         <v>45985</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -44127,7 +44127,7 @@
         <v>45982.55253472222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44189,7 +44189,7 @@
         <v>45985</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -44246,7 +44246,7 @@
         <v>44328</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45595</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44365,7 +44365,7 @@
         <v>44987</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44422,7 +44422,7 @@
         <v>45653.5150462963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>44911.94</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45453.95199074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44608,7 +44608,7 @@
         <v>45989</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44665,7 +44665,7 @@
         <v>45989</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -44722,7 +44722,7 @@
         <v>45540</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44779,7 +44779,7 @@
         <v>45692.64475694444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -44841,7 +44841,7 @@
         <v>45195.94755787037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -44903,7 +44903,7 @@
         <v>45993.65892361111</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -44960,7 +44960,7 @@
         <v>45505.9299537037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -45017,7 +45017,7 @@
         <v>44972</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -45079,7 +45079,7 @@
         <v>45478.94722222222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45993.67761574074</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45993.65197916667</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45993.66409722222</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45586</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -45374,7 +45374,7 @@
         <v>45992.39248842592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -45431,7 +45431,7 @@
         <v>44371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45488,7 +45488,7 @@
         <v>45993</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -45545,7 +45545,7 @@
         <v>44943</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -45602,7 +45602,7 @@
         <v>45232</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45659,7 +45659,7 @@
         <v>45994</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -45716,7 +45716,7 @@
         <v>44657</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -45773,7 +45773,7 @@
         <v>45748</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -45830,7 +45830,7 @@
         <v>46036.53188657408</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -45892,7 +45892,7 @@
         <v>45436.94604166667</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -45954,7 +45954,7 @@
         <v>46034</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -46011,7 +46011,7 @@
         <v>45089</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
         <v>45442</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -46130,7 +46130,7 @@
         <v>45216.95604166666</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -46192,7 +46192,7 @@
         <v>45520.61695601852</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -46254,7 +46254,7 @@
         <v>45996.63483796296</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -46311,7 +46311,7 @@
         <v>45999.7365162037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>45999.74017361111</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -46425,7 +46425,7 @@
         <v>45999.74972222222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -46482,7 +46482,7 @@
         <v>46038.59427083333</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -46544,7 +46544,7 @@
         <v>45478.94733796296</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -46606,7 +46606,7 @@
         <v>45996.59995370371</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -46663,7 +46663,7 @@
         <v>45996.60284722222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -46720,7 +46720,7 @@
         <v>45999.72875</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -46777,7 +46777,7 @@
         <v>46038.43719907408</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -46834,7 +46834,7 @@
         <v>45435.94553240741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -46896,7 +46896,7 @@
         <v>45999.74579861111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>45399</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>46001.60319444445</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -47067,7 +47067,7 @@
         <v>45622</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47129,7 +47129,7 @@
         <v>45999.76028935185</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -47186,7 +47186,7 @@
         <v>45492.9580324074</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45232</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45188</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>46001.54938657407</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45999.77453703704</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45428.97231481481</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -47538,7 +47538,7 @@
         <v>45574</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -47595,7 +47595,7 @@
         <v>46001.68586805555</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -47657,7 +47657,7 @@
         <v>45457.96708333334</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -47719,7 +47719,7 @@
         <v>46003.33113425926</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -47776,7 +47776,7 @@
         <v>45582</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -47838,7 +47838,7 @@
         <v>45408</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -47895,7 +47895,7 @@
         <v>45720</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -47952,7 +47952,7 @@
         <v>45453</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -48014,7 +48014,7 @@
         <v>45443</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48076,7 +48076,7 @@
         <v>45622</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -48133,7 +48133,7 @@
         <v>46045.49011574074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48195,7 +48195,7 @@
         <v>44881</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -48252,7 +48252,7 @@
         <v>45737</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>46048.43972222223</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45552.5315162037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -48433,7 +48433,7 @@
         <v>46049.42791666667</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -48495,7 +48495,7 @@
         <v>45756</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -48557,7 +48557,7 @@
         <v>46006</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -48614,7 +48614,7 @@
         <v>45207.93900462963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -48676,7 +48676,7 @@
         <v>45225.9678587963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -48738,7 +48738,7 @@
         <v>46006.7149074074</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -48795,7 +48795,7 @@
         <v>46048.5734375</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -48852,7 +48852,7 @@
         <v>46006.69791666666</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -48909,7 +48909,7 @@
         <v>46009</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -48966,7 +48966,7 @@
         <v>45148.96195601852</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -49028,7 +49028,7 @@
         <v>45205</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -49090,7 +49090,7 @@
         <v>44470.31884259259</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -49152,7 +49152,7 @@
         <v>45236</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -49214,7 +49214,7 @@
         <v>44903</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -49271,7 +49271,7 @@
         <v>44253</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -49328,7 +49328,7 @@
         <v>45222</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -49390,7 +49390,7 @@
         <v>45429</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -49452,7 +49452,7 @@
         <v>46003</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -49509,7 +49509,7 @@
         <v>46055.48990740741</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -49566,7 +49566,7 @@
         <v>46055.40685185185</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -49623,7 +49623,7 @@
         <v>45622</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -49680,7 +49680,7 @@
         <v>45617</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -49742,7 +49742,7 @@
         <v>46055.40693287037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -49799,7 +49799,7 @@
         <v>44637</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -49856,7 +49856,7 @@
         <v>46048</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -49913,7 +49913,7 @@
         <v>45475.94844907407</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -49975,7 +49975,7 @@
         <v>46055.40695601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -50032,7 +50032,7 @@
         <v>46056.45396990741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -50089,7 +50089,7 @@
         <v>45770</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -50146,7 +50146,7 @@
         <v>45526.71134259259</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -50208,7 +50208,7 @@
         <v>45246.96861111111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -50270,7 +50270,7 @@
         <v>45149.95256944445</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -50332,7 +50332,7 @@
         <v>45186.51590277778</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -50389,7 +50389,7 @@
         <v>45152</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -50446,7 +50446,7 @@
         <v>45148.96185185185</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -50508,7 +50508,7 @@
         <v>45511.95214120371</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -50570,7 +50570,7 @@
         <v>45775.61550925926</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -50632,7 +50632,7 @@
         <v>46058.59981481481</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -50689,7 +50689,7 @@
         <v>45526.61637731481</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -50751,7 +50751,7 @@
         <v>45509</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -50808,7 +50808,7 @@
         <v>45509</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -50870,7 +50870,7 @@
         <v>46013</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -50927,7 +50927,7 @@
         <v>45568.34429398148</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -50989,7 +50989,7 @@
         <v>44532</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -51046,7 +51046,7 @@
         <v>44995</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -51108,7 +51108,7 @@
         <v>45239</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         <v>44881</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -51222,7 +51222,7 @@
         <v>45216.9580787037</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -51284,7 +51284,7 @@
         <v>46064.61513888889</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>45487.9563425926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -51408,7 +51408,7 @@
         <v>45756</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -51465,7 +51465,7 @@
         <v>45756</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -51522,7 +51522,7 @@
         <v>45756</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>44972</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -51641,7 +51641,7 @@
         <v>44609</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -51703,7 +51703,7 @@
         <v>45660.42734953704</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -51765,7 +51765,7 @@
         <v>45660.53215277778</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -51827,7 +51827,7 @@
         <v>46066.35452546296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -51889,7 +51889,7 @@
         <v>45149.95310185185</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -51951,7 +51951,7 @@
         <v>45618.43804398148</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>45659</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45659</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -52127,7 +52127,7 @@
         <v>45734</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -52184,7 +52184,7 @@
         <v>45159</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -52241,7 +52241,7 @@
         <v>45190</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45297</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>46049</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45636</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -52479,7 +52479,7 @@
         <v>44972</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -52541,7 +52541,7 @@
         <v>45117</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -52603,7 +52603,7 @@
         <v>44628</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>45552</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -52722,7 +52722,7 @@
         <v>44361</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -52784,7 +52784,7 @@
         <v>45485</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -52841,7 +52841,7 @@
         <v>45518.97211805556</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -52903,7 +52903,7 @@
         <v>45140</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -52960,7 +52960,7 @@
         <v>46070</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -53017,7 +53017,7 @@
         <v>45092.94042824074</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -53079,7 +53079,7 @@
         <v>45777</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>44698</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45545.53619212963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -53255,7 +53255,7 @@
         <v>45238</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -53317,7 +53317,7 @@
         <v>45238</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -53379,7 +53379,7 @@
         <v>45376</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -53436,7 +53436,7 @@
         <v>45400</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -53493,7 +53493,7 @@
         <v>45206.95761574074</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -53555,7 +53555,7 @@
         <v>45225</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -53617,7 +53617,7 @@
         <v>46073.40673611111</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -53679,7 +53679,7 @@
         <v>46072.58782407407</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -53736,7 +53736,7 @@
         <v>44522</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -53798,7 +53798,7 @@
         <v>45084</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -53860,7 +53860,7 @@
         <v>45154</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -53922,7 +53922,7 @@
         <v>45492.95818287037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -53984,7 +53984,7 @@
         <v>45492.95939814814</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -54046,7 +54046,7 @@
         <v>45492.95981481481</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -54108,7 +54108,7 @@
         <v>45469</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -54170,7 +54170,7 @@
         <v>44389</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -54227,7 +54227,7 @@
         <v>45754.49008101852</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -54289,7 +54289,7 @@
         <v>45617</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45090</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -54413,7 +54413,7 @@
         <v>45541.63592592593</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -54475,7 +54475,7 @@
         <v>45152</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -54532,7 +54532,7 @@
         <v>45236</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -54594,7 +54594,7 @@
         <v>44985</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -54651,7 +54651,7 @@
         <v>44939</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -54713,7 +54713,7 @@
         <v>45574.40974537037</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -54770,7 +54770,7 @@
         <v>45450.9444212963</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -54832,7 +54832,7 @@
         <v>45278</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -54889,7 +54889,7 @@
         <v>45748</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         <v>45565.4912962963</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -55008,7 +55008,7 @@
         <v>44743</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -55070,7 +55070,7 @@
         <v>45194</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -55127,7 +55127,7 @@
         <v>45295</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -55189,7 +55189,7 @@
         <v>44972</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -55251,7 +55251,7 @@
         <v>45545.40717592592</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -55313,7 +55313,7 @@
         <v>45545</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -55375,7 +55375,7 @@
         <v>45545</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -55437,7 +55437,7 @@
         <v>44826</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -55494,7 +55494,7 @@
         <v>45000</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -55551,7 +55551,7 @@
         <v>45435.94324074074</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -55613,7 +55613,7 @@
         <v>44943</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -55670,7 +55670,7 @@
         <v>45300</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -55727,7 +55727,7 @@
         <v>44628.925625</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -55784,7 +55784,7 @@
         <v>45042</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -55846,7 +55846,7 @@
         <v>45222.9678125</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -55908,7 +55908,7 @@
         <v>44923</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -55970,7 +55970,7 @@
         <v>45205</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -56032,7 +56032,7 @@
         <v>45419</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -56089,7 +56089,7 @@
         <v>45617</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -56151,7 +56151,7 @@
         <v>45524.35605324074</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -56213,7 +56213,7 @@
         <v>44564.80189814815</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -56270,7 +56270,7 @@
         <v>44435</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -56327,7 +56327,7 @@
         <v>44977.98401620371</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>44977</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -56451,7 +56451,7 @@
         <v>44857</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -56508,7 +56508,7 @@
         <v>45349</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         <v>44615</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -56622,7 +56622,7 @@
         <v>44985</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -56679,7 +56679,7 @@
         <v>44735</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -56741,7 +56741,7 @@
         <v>44488</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -56798,7 +56798,7 @@
         <v>45453.95314814815</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>45453.95326388889</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -56922,7 +56922,7 @@
         <v>45730.37549768519</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -56984,7 +56984,7 @@
         <v>45730.37681712963</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -57046,7 +57046,7 @@
         <v>45769</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -57108,7 +57108,7 @@
         <v>45524.34668981482</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -57170,7 +57170,7 @@
         <v>45238</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -57232,7 +57232,7 @@
         <v>45575.49100694444</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -57294,7 +57294,7 @@
         <v>45520.58966435185</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -57356,7 +57356,7 @@
         <v>44307</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -57413,7 +57413,7 @@
         <v>44307</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         <v>45254.96524305556</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -57532,7 +57532,7 @@
         <v>45743</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -57589,7 +57589,7 @@
         <v>44903</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -57646,7 +57646,7 @@
         <v>45775</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -57708,7 +57708,7 @@
         <v>45748.62240740741</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -57765,7 +57765,7 @@
         <v>45595</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -57822,7 +57822,7 @@
         <v>45595.4618287037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -57879,7 +57879,7 @@
         <v>45573</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -57941,7 +57941,7 @@
         <v>44859</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -57998,7 +57998,7 @@
         <v>45316.9474537037</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -58060,7 +58060,7 @@
         <v>45390.95230324074</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -58122,7 +58122,7 @@
         <v>45730</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -58184,7 +58184,7 @@
         <v>44640</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -58241,7 +58241,7 @@
         <v>45278.94263888889</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -58303,7 +58303,7 @@
         <v>45147.95452546296</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -58365,7 +58365,7 @@
         <v>45534.64422453703</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -58427,7 +58427,7 @@
         <v>45534.64508101852</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -58489,7 +58489,7 @@
         <v>45709</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         <v>45541.38586805556</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -58608,7 +58608,7 @@
         <v>45362.96927083333</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>45526.46234953704</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>45232</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -58784,7 +58784,7 @@
         <v>45377.94945601852</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>45635.34425925926</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -58908,7 +58908,7 @@
         <v>44972</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -58970,7 +58970,7 @@
         <v>45516.9525462963</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -59032,7 +59032,7 @@
         <v>45660.40270833333</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -59089,7 +59089,7 @@
         <v>45660.41033564815</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -59146,7 +59146,7 @@
         <v>44888</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         <v>45048</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -59260,7 +59260,7 @@
         <v>45754.49045138889</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -59322,7 +59322,7 @@
         <v>44747</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -59384,7 +59384,7 @@
         <v>45733</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -59446,7 +59446,7 @@
         <v>45516.95302083333</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -59508,7 +59508,7 @@
         <v>45516.95311342592</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -59570,7 +59570,7 @@
         <v>45526.56435185186</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -59627,7 +59627,7 @@
         <v>45762</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -59689,7 +59689,7 @@
         <v>45147.9540625</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -59751,7 +59751,7 @@
         <v>44963.92259259259</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -59808,7 +59808,7 @@
         <v>45399</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -59870,7 +59870,7 @@
         <v>45099</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -59932,7 +59932,7 @@
         <v>45154.92628472222</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -59989,7 +59989,7 @@
         <v>45158.31186342592</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -60046,7 +60046,7 @@
         <v>45649.56392361111</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -60103,7 +60103,7 @@
         <v>44693.32515046297</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -60160,7 +60160,7 @@
         <v>45377.94954861111</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -60222,7 +60222,7 @@
         <v>45265.95677083333</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -60284,7 +60284,7 @@
         <v>44909</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -60341,7 +60341,7 @@
         <v>45378</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -60398,7 +60398,7 @@
         <v>45442.96064814815</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>45777.59427083333</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45777.53157407408</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45492.96108796296</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -60646,7 +60646,7 @@
         <v>45779</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -60708,7 +60708,7 @@
         <v>44949</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -60765,7 +60765,7 @@
         <v>45779</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -60827,7 +60827,7 @@
         <v>45782</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -60889,7 +60889,7 @@
         <v>45782.55241898148</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -60951,7 +60951,7 @@
         <v>45783</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -61013,7 +61013,7 @@
         <v>45783.46917824074</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         <v>45784.59418981482</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -61137,7 +61137,7 @@
         <v>45216</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -61194,7 +61194,7 @@
         <v>45785.3443287037</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -61256,7 +61256,7 @@
         <v>45784.63592592593</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -61318,7 +61318,7 @@
         <v>45140</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -61375,7 +61375,7 @@
         <v>45784</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -61437,7 +61437,7 @@
         <v>45784</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -61494,7 +61494,7 @@
         <v>45791.57324074074</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -61556,7 +61556,7 @@
         <v>45433</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -61613,7 +61613,7 @@
         <v>45586</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -61675,7 +61675,7 @@
         <v>45793.59461805555</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -61737,7 +61737,7 @@
         <v>45793</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -61799,7 +61799,7 @@
         <v>45587</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -61861,7 +61861,7 @@
         <v>45793</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -61923,7 +61923,7 @@
         <v>45659</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -61985,7 +61985,7 @@
         <v>45800</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -62047,7 +62047,7 @@
         <v>45589</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         <v>45548.46918981482</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -62171,7 +62171,7 @@
         <v>45757</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -62233,7 +62233,7 @@
         <v>45792.34643518519</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -62295,7 +62295,7 @@
         <v>45792.34540509259</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -62357,7 +62357,7 @@
         <v>45792</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -62419,7 +62419,7 @@
         <v>45792</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -62481,7 +62481,7 @@
         <v>45589</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -62543,7 +62543,7 @@
         <v>45587</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -62605,7 +62605,7 @@
         <v>44623</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -62667,7 +62667,7 @@
         <v>45797</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -62724,7 +62724,7 @@
         <v>45518</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         <v>45147</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -62848,7 +62848,7 @@
         <v>45799.69844907407</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -62910,7 +62910,7 @@
         <v>45149.95266203704</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -62972,7 +62972,7 @@
         <v>45799.49028935185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -63034,7 +63034,7 @@
         <v>45799.49025462963</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -63096,7 +63096,7 @@
         <v>45415.94033564815</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -63158,7 +63158,7 @@
         <v>45803.38644675926</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -63220,7 +63220,7 @@
         <v>45800.44892361111</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -63282,7 +63282,7 @@
         <v>45800.44840277778</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -63344,7 +63344,7 @@
         <v>44847</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -63401,7 +63401,7 @@
         <v>45800.57380787037</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -63463,7 +63463,7 @@
         <v>45800</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -63525,7 +63525,7 @@
         <v>45804.3449537037</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -63587,7 +63587,7 @@
         <v>45096</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -63644,7 +63644,7 @@
         <v>45636.55063657407</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -63706,7 +63706,7 @@
         <v>45804.59461805555</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -63768,7 +63768,7 @@
         <v>45440.92866898148</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -63825,7 +63825,7 @@
         <v>45805</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -63887,7 +63887,7 @@
         <v>45583</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -63949,7 +63949,7 @@
         <v>45810.53185185185</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -64011,7 +64011,7 @@
         <v>45810.59417824074</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -64073,7 +64073,7 @@
         <v>45810</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -64135,7 +64135,7 @@
         <v>45810.53188657408</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         <v>44978</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -64254,7 +64254,7 @@
         <v>45813.52791666667</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -64316,7 +64316,7 @@
         <v>45817.51078703703</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -64378,7 +64378,7 @@
         <v>45817.53157407408</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -64440,7 +64440,7 @@
         <v>45817.61506944444</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -64502,7 +64502,7 @@
         <v>45817</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -64564,7 +64564,7 @@
         <v>45817.67755787037</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -64626,7 +64626,7 @@
         <v>45817.61545138889</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -64688,7 +64688,7 @@
         <v>45817.65658564815</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -64750,7 +64750,7 @@
         <v>44686</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
